--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git0804\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B554FB9F-D49D-489B-BCC6-D224EC46B662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B7135-8818-4359-8A8A-8AAD1D87C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="jvm" sheetId="2" r:id="rId2"/>
+    <sheet name="JS株価指値" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>1G</t>
     <phoneticPr fontId="2"/>
@@ -152,12 +153,52 @@
     <t>JVM（JAVA実行用）</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>トヨタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずほ銀行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始値</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時価</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+100ボタン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100ボタン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱UFJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時価ダウン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時価アップ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +228,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +260,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -354,11 +431,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -392,8 +574,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2224,7 +2424,7 @@
   </sheetPr>
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2257,11 +2457,10 @@
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="7"/>
@@ -2270,100 +2469,81 @@
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
+      <c r="D8" s="2"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="2"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="2"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="2"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="2"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="2"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="2"/>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
-      <c r="C15" s="33"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2732,4 +2912,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F32B542-8F12-46BF-A0A3-EBE52A43B508}">
+  <dimension ref="D3:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="8.6640625" style="33"/>
+    <col min="5" max="5" width="12.4140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="14" style="33" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="33"/>
+    <col min="8" max="8" width="14.25" style="33" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="33" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="37"/>
+      <c r="E6" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="37"/>
+      <c r="E7" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="43">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="51">
+        <v>900</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="37"/>
+      <c r="E8" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="48">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="48">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="39"/>
+    </row>
+    <row r="9" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="37"/>
+      <c r="E9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="48">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="52">
+        <v>3100</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="39"/>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+    </row>
+    <row r="11" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git0804\takada\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B7135-8818-4359-8A8A-8AAD1D87C7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45B258-D38C-41A5-AC7F-FB357538AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -579,7 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2131,6 +2130,486 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>numInt</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>478693</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9770</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C72B870-FE3C-8584-512D-F3099023C514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6774962" y="4005385"/>
+          <a:ext cx="190500" cy="620346"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337039</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615462</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95D3B193-4D98-4A82-B133-8D1E408D5D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7952154" y="4024923"/>
+          <a:ext cx="278423" cy="551962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473807</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400538</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FF5870A-DDDF-961E-415F-B84622CD2308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6770076" y="4176346"/>
+          <a:ext cx="586154" cy="297962"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220784</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147515</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120F8508-8542-4972-9E32-EDAFA6181200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7835899" y="4172439"/>
+          <a:ext cx="586154" cy="297962"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136770</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68386</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B62E4CD-BB95-4A6E-B876-98BCEAA03B58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8411308" y="4000501"/>
+          <a:ext cx="434730" cy="483577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>185616</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>170961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112346</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="楕円 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A186019-9FBD-4363-A4F2-F4A7948DDE2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8460154" y="4059115"/>
+          <a:ext cx="586154" cy="297962"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4885</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170962</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8A4292-D984-4340-82DB-3126729D9F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6301154" y="4024923"/>
+          <a:ext cx="166077" cy="517769"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278424</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205155</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="楕円 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA4FC26-506D-4E84-992A-3CCAEBEFE0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5915270" y="4117729"/>
+          <a:ext cx="586154" cy="297962"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NG</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2424,8 +2903,8 @@
   </sheetPr>
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2918,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F32B542-8F12-46BF-A0A3-EBE52A43B508}">
   <dimension ref="D3:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2945,106 +3424,96 @@
     </row>
     <row r="5" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D6" s="37"/>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D7" s="37"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>1000</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <v>900</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="37"/>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <v>2000</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <v>2000</v>
       </c>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="37"/>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="47">
         <v>3000</v>
       </c>
-      <c r="G9" s="52">
+      <c r="G9" s="51">
         <v>3100</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC45B258-D38C-41A5-AC7F-FB357538AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87934D2-0B43-44D6-AAFD-444396AB139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="jvm" sheetId="2" r:id="rId2"/>
-    <sheet name="JS株価指値" sheetId="3" r:id="rId3"/>
+    <sheet name="JAVA実行構成" sheetId="4" r:id="rId3"/>
+    <sheet name="JAVAプロジェクト参照" sheetId="5" r:id="rId4"/>
+    <sheet name="JS株価指値" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>1G</t>
     <phoneticPr fontId="2"/>
@@ -193,12 +195,55 @@
     <t>時価アップ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2.JAVAのバージョンは同じにすること。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.javaプロジェクト（calc）を新規する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.calcプロジェクトに、メソッドを作成する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4.hello-javaプロジェクトのビルド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・パス構成画面に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calcプロジェクトを追加する</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.javaソースを実行し、結果を出すこと。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +277,21 @@
       <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -540,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -593,6 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2615,6 +2676,390 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69047</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>164353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68048F9D-68A5-29EC-CA20-5EEF58F237BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657412" y="896471"/>
+          <a:ext cx="9272811" cy="7336117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426357</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>592585</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>75237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2581204D-838B-B7DD-B3D7-FA0E137278FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10359571" y="1004792"/>
+          <a:ext cx="9437228" cy="7416160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182496</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>159550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>575769</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE0B163-1D87-EC12-220B-055EADB4CFFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12764567" y="5602407"/>
+          <a:ext cx="4366559" cy="474916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>239059</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>306294</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C63826-46E9-4A01-BB48-ECAEA7DF336B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2868706" y="2547471"/>
+          <a:ext cx="1382059" cy="620058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283883</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351118</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F37F2484-F4D3-41A7-B299-A5D0DCB2F8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913530" y="4123765"/>
+          <a:ext cx="1382059" cy="620058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450133</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E6EA8A-C597-4688-D927-880BF9F852AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="533400"/>
+          <a:ext cx="5733333" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435289</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB120DC5-A94B-6952-AB83-AF0D4AA266E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="4654551"/>
+          <a:ext cx="8956988" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2903,8 +3348,8 @@
   </sheetPr>
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3394,6 +3839,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A657CE-5E43-42C0-8018-60AD525009F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B818EFD-4714-4F5E-979B-E5924685BE27}">
+  <dimension ref="B19:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="19" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B19" s="52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B20" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B21" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B22" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B51" s="52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F32B542-8F12-46BF-A0A3-EBE52A43B508}">
   <dimension ref="D3:J11"/>
   <sheetViews>

--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87934D2-0B43-44D6-AAFD-444396AB139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6F9B3-E4E8-4833-8089-F1F3D7798146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="jvm" sheetId="2" r:id="rId2"/>
     <sheet name="JAVA実行構成" sheetId="4" r:id="rId3"/>
     <sheet name="JAVAプロジェクト参照" sheetId="5" r:id="rId4"/>
-    <sheet name="JS株価指値" sheetId="3" r:id="rId5"/>
+    <sheet name="jarファイル参照" sheetId="6" r:id="rId5"/>
+    <sheet name="JS株価指値" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>1G</t>
     <phoneticPr fontId="2"/>
@@ -238,12 +239,55 @@
     <t>5.javaソースを実行し、結果を出すこと。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>jarファイルを作成する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.プロジェクト右クリックし、エクスポートを選択する。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jarファイルの出力先を設定する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.hello-javaのプロジェクトのビルド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・パス構成画面に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jarファイルを参照する。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.javaソースを実行し、結果を出すこと。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +336,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -600,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -654,6 +705,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3054,6 +3106,253 @@
         <a:xfrm>
           <a:off x="723901" y="4654551"/>
           <a:ext cx="8956988" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF752B90-A915-BD3E-7F5F-319FFBDD6CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322552" y="1151759"/>
+          <a:ext cx="5298965" cy="3703509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312309</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>70893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A2D9A4-FE46-CA9E-7209-01B43DBBE111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322552" y="5430345"/>
+          <a:ext cx="8247619" cy="8295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100724</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>232103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>538655</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>232102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917B76FB-941A-4CDB-B23A-AB8A152DC366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1423276" y="10330793"/>
+          <a:ext cx="3083034" cy="761999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>208633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9373179D-F960-4BE8-94C5-577D99F01C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322552" y="15178690"/>
+          <a:ext cx="11992612" cy="6304633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603774</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>5883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9212F860-A495-303B-74D2-A40A027EE50A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322552" y="21528690"/>
+          <a:ext cx="4571429" cy="1980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3859,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B818EFD-4714-4F5E-979B-E5924685BE27}">
   <dimension ref="B19:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3898,6 +4197,177 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6821E3E7-7C5D-4173-95C8-B1BBB0297172}">
+  <dimension ref="B2:B113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="22.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B4" s="52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B27" s="52"/>
+    </row>
+    <row r="28" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B28" s="52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B55" s="52"/>
+    </row>
+    <row r="56" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B56" s="52"/>
+    </row>
+    <row r="57" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B57" s="52"/>
+    </row>
+    <row r="58" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B58" s="52"/>
+    </row>
+    <row r="59" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B59" s="52"/>
+    </row>
+    <row r="60" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B60" s="52"/>
+    </row>
+    <row r="61" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B61" s="52"/>
+    </row>
+    <row r="62" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B62" s="52"/>
+    </row>
+    <row r="63" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B63" s="52"/>
+    </row>
+    <row r="64" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B64" s="52"/>
+    </row>
+    <row r="65" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B65" s="52"/>
+    </row>
+    <row r="66" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B66" s="52"/>
+    </row>
+    <row r="67" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B67" s="52"/>
+    </row>
+    <row r="68" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B68" s="52"/>
+    </row>
+    <row r="69" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B69" s="52"/>
+    </row>
+    <row r="70" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B70" s="52"/>
+    </row>
+    <row r="71" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B71" s="52"/>
+    </row>
+    <row r="72" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B72" s="52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B73" s="52"/>
+    </row>
+    <row r="74" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B74" s="52"/>
+    </row>
+    <row r="75" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B75" s="52"/>
+    </row>
+    <row r="76" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B76" s="52"/>
+    </row>
+    <row r="77" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B77" s="52"/>
+    </row>
+    <row r="78" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B78" s="52"/>
+    </row>
+    <row r="79" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B79" s="52"/>
+    </row>
+    <row r="80" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B80" s="52"/>
+    </row>
+    <row r="81" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B81" s="52"/>
+    </row>
+    <row r="82" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B82" s="52"/>
+    </row>
+    <row r="83" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B83" s="52"/>
+    </row>
+    <row r="84" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B84" s="52"/>
+    </row>
+    <row r="85" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B85" s="52"/>
+    </row>
+    <row r="86" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B86" s="52"/>
+    </row>
+    <row r="87" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B87" s="52"/>
+    </row>
+    <row r="88" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B88" s="52"/>
+    </row>
+    <row r="89" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B89" s="52"/>
+    </row>
+    <row r="90" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B90" s="52"/>
+    </row>
+    <row r="91" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B91" s="52"/>
+    </row>
+    <row r="92" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B92" s="52"/>
+    </row>
+    <row r="93" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B93" s="52"/>
+    </row>
+    <row r="94" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B94" s="52"/>
+    </row>
+    <row r="95" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B95" s="52"/>
+    </row>
+    <row r="96" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B96" s="52"/>
+    </row>
+    <row r="97" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B97" s="52"/>
+    </row>
+    <row r="113" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+      <c r="B113" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F32B542-8F12-46BF-A0A3-EBE52A43B508}">
   <dimension ref="D3:J11"/>
   <sheetViews>

--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6F9B3-E4E8-4833-8089-F1F3D7798146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C7F09B-4EE1-4E13-A62A-B8B997989D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="JAVAプロジェクト参照" sheetId="5" r:id="rId4"/>
     <sheet name="jarファイル参照" sheetId="6" r:id="rId5"/>
     <sheet name="JS株価指値" sheetId="3" r:id="rId6"/>
+    <sheet name="データベース" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
   <si>
     <t>1G</t>
     <phoneticPr fontId="2"/>
@@ -280,6 +281,2165 @@
   </si>
   <si>
     <t>4.javaソースを実行し、結果を出すこと。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／無料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSTGRESQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2</t>
+  </si>
+  <si>
+    <t>ORACLE</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYBASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relational Database：リレーショナルデータベース</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「RDB」とは、表形式の複数データを関連付けて使えるようにしたデータベースのことです。</t>
+  </si>
+  <si>
+    <t>データベースの種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ドキュメント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>データベースの理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE（0.5G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>システム用（1G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL（0.5G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBデータ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>performance_schema</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>MYSQLシステム用（WINDOWSフォルダーようなもの、触らないください）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQLで新規データベースを作成するには、以下の手順を実行します。</t>
+  </si>
+  <si>
+    <t>手順</t>
+  </si>
+  <si>
+    <r>
+      <t>1. MySQLにログインする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ターミナルまたはコマンドプロンプトで以下のコマンドを使用して、MySQLにログインします。</t>
+    </r>
+  </si>
+  <si>
+    <t>bash</t>
+  </si>
+  <si>
+    <t>コードをコピーする</t>
+  </si>
+  <si>
+    <r>
+      <t>ユーザー名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> の部分を適切なユーザー名に置き換えてください。パスワードの入力を求められます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. データベースを作成する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ログイン後、次のSQLコマンドで新しいデータベースを作成します。</t>
+    </r>
+  </si>
+  <si>
+    <t>sql</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">例: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>test_db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>という名前のデータベースを作成する場合：</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE DATABASE test_db;</t>
+  </si>
+  <si>
+    <r>
+      <t>3. データベースを確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作成したデータベースがリストに表示されるか確認します。</t>
+    </r>
+  </si>
+  <si>
+    <t>これで、MySQLに新しいデータベースが作成されます。</t>
+  </si>
+  <si>
+    <r>
+      <t>4. データベースに接続する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 作成したデータベースに接続する場合は、以下のコマンドを使用します。</t>
+    </r>
+  </si>
+  <si>
+    <t>USE データベース名;</t>
+  </si>
+  <si>
+    <t>例:</t>
+  </si>
+  <si>
+    <t>これで新規データベースの作成が完了し、操作する準備が整いました。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mysql -u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ユーザー名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -p</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOW DATABASES;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USE test_db;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CREATE DATABASE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>データベース名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQLで現在使用しているデータベースを確認するには、以下のSQLコマンドを実行します：</t>
+  </si>
+  <si>
+    <r>
+      <t>このコマンドを実行すると、現在接続しているデータベースの名前が表示されます。もしデータベースに接続していない場合は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> が返されます。</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT DATABASE();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>説明：</t>
+  </si>
+  <si>
+    <t>MySQLで現在のデータベースに存在するテーブルを確認するには、以下のSQLコマンドを使用します。</t>
+  </si>
+  <si>
+    <t>このコマンドを実行すると、現在使用中のデータベース内にあるすべてのテーブルが一覧で表示されます。</t>
+  </si>
+  <si>
+    <t>SHOW TABLES;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下は、数値、文字列、日付、画像を含むMySQLのテーブルを作成するSQL文で、テーブルとフィールドにコメント（備考情報）を追加した例です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name VARCHAR(100) COMMENT '商品名',                    -- 文字列カラムにコメントを追加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price DECIMAL(10, 2) COMMENT '価格',                   -- 小数を扱うカラムにコメントを追加</t>
+  </si>
+  <si>
+    <t>) COMMENT = '商品情報を格納するテーブル';                 -- テーブル自体にコメントを追加</t>
+  </si>
+  <si>
+    <r>
+      <t>1. id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 整数型で、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AUTO_INCREMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> による主キー。コメントとして「主キーID」を追加。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 文字列型で、商品名を保存するカラム。コメントとして「商品名」を追加。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 小数点付き数値型で、商品の価格を保存。コメントとして「価格」を追加。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. created_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 日付型で、商品の作成日を保存。コメントとして「作成日」を追加。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>LONGBLOB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型で、商品の画像データを保存。コメントとして「商品画像」を追加。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>最後に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>COMMENT = '商品情報を格納するテーブル'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> というテーブル全体に関するコメントを追加しています。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TEACHER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_INCREMENT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'NO'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'月給'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> birthday datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'誕生日'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'性別'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'先生テーブル'</t>
+    </r>
+  </si>
+  <si>
+    <t>CREATE TABLE example_table (</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    id INT AUTO_INCREMENT PRIMARY KEY COMMENT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主キー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ID',  -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字（整数）のカラムにコメントを追加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数部は最大で8桁、小数部は2桁になります。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    created_at DATE COMMENT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作成日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">',                      -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日付カラムにコメントを追加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    image LONGBLOB COMMENT '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品画像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'                      -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>画像を扱うカラムにコメントを追加</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INT </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL(M, D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)  -- 10文字の固定長文字列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)  -- 最大255文字の可変長文字列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE（日付）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME（日付と時刻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">abc          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key は唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在留卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> datetime </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my birthday'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InnoDB  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'在留カード money '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>年金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my salary'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> ENGINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">InnoDB  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'国民年金year money talbe'</t>
+    </r>
+  </si>
+  <si>
+    <t>tanaka</t>
+  </si>
+  <si>
+    <t>satou</t>
+  </si>
+  <si>
+    <t>kawaguti</t>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>year_money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DML（Data Manipulation Language：データ操作言語）</t>
+  </si>
+  <si>
+    <t>DDL（Data Definition Language：データ定義言語）</t>
+  </si>
+  <si>
+    <t>データベース新規、削除、修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テーブル新規、削除、修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>テーブルのデータを新規、削除、修正、検索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +2447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +2505,127 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF5656"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0080FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF2800"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF2800"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +2680,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87E7AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -647,11 +2938,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -706,6 +3079,118 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3633,7 +6118,7 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3651,7 +6136,7 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="2" width="16.83203125" style="1" customWidth="1"/>
@@ -3660,12 +6145,12 @@
     <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="14.5" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
@@ -3676,7 +6161,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
         <v>20</v>
       </c>
@@ -3688,7 +6173,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
@@ -3700,7 +6185,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -3710,7 +6195,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6">
       <c r="B6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>4</v>
@@ -3720,7 +6205,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6">
       <c r="B7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -3730,58 +6215,58 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6">
       <c r="B8" s="6"/>
       <c r="D8" s="2"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6">
       <c r="B9" s="6"/>
       <c r="D9" s="2"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6">
       <c r="B10" s="6"/>
       <c r="D10" s="2"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6">
       <c r="B11" s="6"/>
       <c r="D11" s="2"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6">
       <c r="B12" s="6"/>
       <c r="D12" s="2"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6">
       <c r="B13" s="6"/>
       <c r="D13" s="2"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6">
       <c r="B14" s="6"/>
       <c r="D14" s="2"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6">
       <c r="B15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" ht="14.5" thickBot="1">
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:12">
       <c r="F41" s="1" t="s">
         <v>6</v>
       </c>
@@ -3789,8 +6274,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="51" spans="2:14">
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3805,13 +6290,13 @@
       <c r="M51" s="4"/>
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14">
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" ht="14.5" thickBot="1">
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
         <v>9</v>
@@ -3821,7 +6306,7 @@
       </c>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14">
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
       <c r="D54" s="9"/>
@@ -3833,7 +6318,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14">
       <c r="B55" s="6"/>
       <c r="C55" s="14"/>
       <c r="D55" s="15"/>
@@ -3845,7 +6330,7 @@
       <c r="M55" s="19"/>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14">
       <c r="B56" s="6"/>
       <c r="C56" s="14"/>
       <c r="D56" s="15"/>
@@ -3857,7 +6342,7 @@
       <c r="M56" s="19"/>
       <c r="N56" s="7"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14">
       <c r="B57" s="6"/>
       <c r="C57" s="14"/>
       <c r="D57" s="15"/>
@@ -3869,7 +6354,7 @@
       <c r="M57" s="19"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14">
       <c r="B58" s="6"/>
       <c r="C58" s="14"/>
       <c r="D58" s="15"/>
@@ -3881,7 +6366,7 @@
       <c r="M58" s="19"/>
       <c r="N58" s="7"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14">
       <c r="B59" s="6"/>
       <c r="C59" s="14"/>
       <c r="D59" s="15"/>
@@ -3893,7 +6378,7 @@
       <c r="M59" s="19"/>
       <c r="N59" s="7"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14">
       <c r="B60" s="6"/>
       <c r="C60" s="14"/>
       <c r="D60" s="15"/>
@@ -3905,7 +6390,7 @@
       <c r="M60" s="19"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:14" ht="14.5" thickBot="1">
       <c r="B61" s="6"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
@@ -3917,19 +6402,19 @@
       <c r="M61" s="25"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14">
       <c r="B62" s="6"/>
       <c r="N62" s="7"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14">
       <c r="B63" s="6"/>
       <c r="N63" s="7"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14">
       <c r="B64" s="6"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:14" ht="14.5" thickBot="1">
       <c r="B65" s="26"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -3944,8 +6429,8 @@
       <c r="M65" s="27"/>
       <c r="N65" s="28"/>
     </row>
-    <row r="67" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" ht="14.5" thickBot="1"/>
+    <row r="68" spans="2:14">
       <c r="B68" s="3" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +6447,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="5"/>
     </row>
-    <row r="69" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:14" ht="14.5" thickBot="1">
       <c r="B69" s="6"/>
       <c r="C69" s="1" t="s">
         <v>9</v>
@@ -3972,7 +6457,7 @@
       </c>
       <c r="N69" s="7"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14">
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
       <c r="D70" s="9"/>
@@ -3984,7 +6469,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14">
       <c r="B71" s="6"/>
       <c r="C71" s="14"/>
       <c r="D71" s="15"/>
@@ -3996,7 +6481,7 @@
       <c r="M71" s="19"/>
       <c r="N71" s="7"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14">
       <c r="B72" s="6"/>
       <c r="C72" s="14"/>
       <c r="D72" s="15"/>
@@ -4008,7 +6493,7 @@
       <c r="M72" s="19"/>
       <c r="N72" s="7"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14">
       <c r="B73" s="6"/>
       <c r="C73" s="14"/>
       <c r="D73" s="15"/>
@@ -4020,7 +6505,7 @@
       <c r="M73" s="19"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14">
       <c r="B74" s="6"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15"/>
@@ -4032,7 +6517,7 @@
       <c r="M74" s="19"/>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14">
       <c r="B75" s="6"/>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
@@ -4044,7 +6529,7 @@
       <c r="M75" s="19"/>
       <c r="N75" s="7"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14">
       <c r="B76" s="6"/>
       <c r="C76" s="14"/>
       <c r="D76" s="15"/>
@@ -4056,7 +6541,7 @@
       <c r="M76" s="19"/>
       <c r="N76" s="7"/>
     </row>
-    <row r="77" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:14" ht="14.5" thickBot="1">
       <c r="B77" s="6"/>
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
@@ -4068,19 +6553,19 @@
       <c r="M77" s="25"/>
       <c r="N77" s="7"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14">
       <c r="B78" s="6"/>
       <c r="N78" s="7"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14">
       <c r="B79" s="6"/>
       <c r="N79" s="7"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14">
       <c r="B80" s="6"/>
       <c r="N80" s="7"/>
     </row>
-    <row r="81" spans="2:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" ht="14.5" thickBot="1">
       <c r="B81" s="26"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -4095,17 +6580,17 @@
       <c r="M81" s="27"/>
       <c r="N81" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16">
       <c r="B85" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:16" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" s="2" customFormat="1" ht="14.5" thickBot="1">
       <c r="B86" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="2:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" ht="14.5" thickBot="1">
       <c r="B87" s="29" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +6630,7 @@
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4162,29 +6647,29 @@
       <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="19" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" ht="20">
       <c r="B19" s="52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" ht="20">
       <c r="B20" s="52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" ht="20">
       <c r="B21" s="52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" ht="20">
       <c r="B22" s="52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:2" ht="20">
       <c r="B51" s="52" t="s">
         <v>42</v>
       </c>
@@ -4200,162 +6685,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6821E3E7-7C5D-4173-95C8-B1BBB0297172}">
   <dimension ref="B2:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="2:2" ht="22.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" ht="22.5">
       <c r="B2" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" ht="20">
       <c r="B4" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:2" ht="20">
       <c r="B27" s="52"/>
     </row>
-    <row r="28" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" ht="20">
       <c r="B28" s="52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:2" ht="20">
       <c r="B55" s="52"/>
     </row>
-    <row r="56" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:2" ht="20">
       <c r="B56" s="52"/>
     </row>
-    <row r="57" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:2" ht="20">
       <c r="B57" s="52"/>
     </row>
-    <row r="58" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:2" ht="20">
       <c r="B58" s="52"/>
     </row>
-    <row r="59" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:2" ht="20">
       <c r="B59" s="52"/>
     </row>
-    <row r="60" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:2" ht="20">
       <c r="B60" s="52"/>
     </row>
-    <row r="61" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:2" ht="20">
       <c r="B61" s="52"/>
     </row>
-    <row r="62" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:2" ht="20">
       <c r="B62" s="52"/>
     </row>
-    <row r="63" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:2" ht="20">
       <c r="B63" s="52"/>
     </row>
-    <row r="64" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:2" ht="20">
       <c r="B64" s="52"/>
     </row>
-    <row r="65" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2" ht="20">
       <c r="B65" s="52"/>
     </row>
-    <row r="66" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:2" ht="20">
       <c r="B66" s="52"/>
     </row>
-    <row r="67" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2" ht="20">
       <c r="B67" s="52"/>
     </row>
-    <row r="68" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2" ht="20">
       <c r="B68" s="52"/>
     </row>
-    <row r="69" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:2" ht="20">
       <c r="B69" s="52"/>
     </row>
-    <row r="70" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:2" ht="20">
       <c r="B70" s="52"/>
     </row>
-    <row r="71" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:2" ht="20">
       <c r="B71" s="52"/>
     </row>
-    <row r="72" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:2" ht="20">
       <c r="B72" s="52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:2" ht="20">
       <c r="B73" s="52"/>
     </row>
-    <row r="74" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:2" ht="20">
       <c r="B74" s="52"/>
     </row>
-    <row r="75" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:2" ht="20">
       <c r="B75" s="52"/>
     </row>
-    <row r="76" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:2" ht="20">
       <c r="B76" s="52"/>
     </row>
-    <row r="77" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:2" ht="20">
       <c r="B77" s="52"/>
     </row>
-    <row r="78" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:2" ht="20">
       <c r="B78" s="52"/>
     </row>
-    <row r="79" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:2" ht="20">
       <c r="B79" s="52"/>
     </row>
-    <row r="80" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:2" ht="20">
       <c r="B80" s="52"/>
     </row>
-    <row r="81" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="20">
       <c r="B81" s="52"/>
     </row>
-    <row r="82" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:2" ht="20">
       <c r="B82" s="52"/>
     </row>
-    <row r="83" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" ht="20">
       <c r="B83" s="52"/>
     </row>
-    <row r="84" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:2" ht="20">
       <c r="B84" s="52"/>
     </row>
-    <row r="85" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="20">
       <c r="B85" s="52"/>
     </row>
-    <row r="86" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="20">
       <c r="B86" s="52"/>
     </row>
-    <row r="87" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="20">
       <c r="B87" s="52"/>
     </row>
-    <row r="88" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:2" ht="20">
       <c r="B88" s="52"/>
     </row>
-    <row r="89" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" ht="20">
       <c r="B89" s="52"/>
     </row>
-    <row r="90" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" ht="20">
       <c r="B90" s="52"/>
     </row>
-    <row r="91" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" ht="20">
       <c r="B91" s="52"/>
     </row>
-    <row r="92" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" ht="20">
       <c r="B92" s="52"/>
     </row>
-    <row r="93" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" ht="20">
       <c r="B93" s="52"/>
     </row>
-    <row r="94" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:2" ht="20">
       <c r="B94" s="52"/>
     </row>
-    <row r="95" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" ht="20">
       <c r="B95" s="52"/>
     </row>
-    <row r="96" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" ht="20">
       <c r="B96" s="52"/>
     </row>
-    <row r="97" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" ht="20">
       <c r="B97" s="52"/>
     </row>
-    <row r="113" spans="2:2" ht="20" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:2" ht="20">
       <c r="B113" s="52" t="s">
         <v>47</v>
       </c>
@@ -4375,7 +6860,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="33"/>
     <col min="5" max="5" width="12.4140625" style="33" customWidth="1"/>
@@ -4386,8 +6871,8 @@
     <col min="10" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" ht="14.5" thickBot="1"/>
+    <row r="4" spans="4:10">
       <c r="D4" s="34"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
@@ -4396,11 +6881,11 @@
       <c r="I4" s="35"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:10" ht="14.5" thickBot="1">
       <c r="D5" s="37"/>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10">
       <c r="D6" s="37"/>
       <c r="E6" s="43" t="s">
         <v>30</v>
@@ -4419,7 +6904,7 @@
       </c>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10">
       <c r="D7" s="37"/>
       <c r="E7" s="45" t="s">
         <v>28</v>
@@ -4438,7 +6923,7 @@
       </c>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:10" ht="14.5" thickBot="1">
       <c r="D8" s="37"/>
       <c r="E8" s="46" t="s">
         <v>29</v>
@@ -4457,7 +6942,7 @@
       </c>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:10" ht="14.5" thickBot="1">
       <c r="D9" s="37"/>
       <c r="E9" s="46" t="s">
         <v>35</v>
@@ -4476,11 +6961,11 @@
       </c>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10">
       <c r="D10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="4:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:10" ht="14.5" thickBot="1">
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
@@ -4493,4 +6978,1359 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4201B21D-9FA9-4803-9D00-DC71C101C58B}">
+  <dimension ref="A2:J163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="B8" s="54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.5" thickBot="1">
+      <c r="B16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.5" thickBot="1">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.5" thickBot="1">
+      <c r="B25" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="68"/>
+      <c r="C26" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.5" thickBot="1">
+      <c r="B27" s="69"/>
+      <c r="C27" s="65"/>
+      <c r="E27" s="72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="65"/>
+      <c r="E28" s="72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.5" thickBot="1">
+      <c r="C29" s="65"/>
+      <c r="E29" s="73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="65"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="65"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" thickBot="1">
+      <c r="C32" s="66"/>
+    </row>
+    <row r="34" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="35" spans="2:9">
+      <c r="B35" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="68"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+    </row>
+    <row r="37" spans="2:9" ht="17">
+      <c r="B37" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="79"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="77"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="77"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="81"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="77"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="77"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="77"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="77"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="79"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="77"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="79"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="81"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="77"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="77"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="77"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="79"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="77"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="77"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="81"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="77"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="77"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="77"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="77"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="79"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="77"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="77"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="81"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="77"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="77"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="77"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="77"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="79"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="77"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="77"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="79"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="77"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="77"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="81"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="77"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="77"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="77"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="77"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="79"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
+      <c r="I72" s="77"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="77"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="81"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
+      <c r="I74" s="77"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="77"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="77"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="77"/>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" s="68"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="77"/>
+    </row>
+    <row r="79" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B79" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="85"/>
+    </row>
+    <row r="80" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="81" spans="2:9">
+      <c r="B81" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="75"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="81"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="77"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
+      <c r="I83" s="77"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
+      <c r="I84" s="77"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="77"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="68"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
+      <c r="I86" s="77"/>
+    </row>
+    <row r="87" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B87" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84"/>
+      <c r="H87" s="84"/>
+      <c r="I87" s="85"/>
+    </row>
+    <row r="90" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="91" spans="2:9">
+      <c r="B91" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="90"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="91"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="93"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92"/>
+      <c r="I93" s="93"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="93"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="93"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="93"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="93"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="93"/>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="93"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="93"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="93"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="94"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="93"/>
+    </row>
+    <row r="103" spans="2:10" ht="17">
+      <c r="B103" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="93"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="96"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="93"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="93"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="92"/>
+      <c r="I106" s="93"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="92"/>
+      <c r="I107" s="93"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="93"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="92"/>
+      <c r="I109" s="93"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="94"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="92"/>
+      <c r="H110" s="92"/>
+      <c r="I110" s="93"/>
+    </row>
+    <row r="111" spans="2:10" ht="14.5" thickBot="1">
+      <c r="B111" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" s="99"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="99"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="99"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="100"/>
+    </row>
+    <row r="112" spans="2:10" ht="14.5" thickBot="1"/>
+    <row r="113" spans="2:9">
+      <c r="B113" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="75"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="81"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="77"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="77"/>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
+      <c r="I116" s="77"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="77"/>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="68"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
+      <c r="I118" s="77"/>
+    </row>
+    <row r="119" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B119" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="84"/>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
+      <c r="G119" s="84"/>
+      <c r="H119" s="84"/>
+      <c r="I119" s="85"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F124" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="C133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="C134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="B135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
+      <c r="C136" t="s">
+        <v>134</v>
+      </c>
+      <c r="F136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
+      <c r="C137" t="s">
+        <v>135</v>
+      </c>
+      <c r="F137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
+      <c r="B138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
+      <c r="C139" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
+      <c r="C140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="B144" s="103"/>
+      <c r="F144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="F145" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="G145" s="105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="F146" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="G146" s="108">
+        <v>36892</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="F147" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="G147" s="108">
+        <v>37377</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="F148" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G148" s="108">
+        <v>37347</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="103"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F151" s="110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="F152" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="G152" s="105" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="G153" s="111">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G154" s="111">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="C159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="C163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C7F09B-4EE1-4E13-A62A-B8B997989D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CB1391-0C13-46DC-8694-0308FE01A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,10 @@
     <sheet name="jarファイル参照" sheetId="6" r:id="rId5"/>
     <sheet name="JS株価指値" sheetId="3" r:id="rId6"/>
     <sheet name="データベース" sheetId="7" r:id="rId7"/>
+    <sheet name="テーブル" sheetId="11" r:id="rId8"/>
+    <sheet name="SQL単テーブル" sheetId="9" r:id="rId9"/>
+    <sheet name="SQL複数テーブル" sheetId="8" r:id="rId10"/>
+    <sheet name="SQLチューニング" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="333">
   <si>
     <t>1G</t>
     <phoneticPr fontId="2"/>
@@ -339,9 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「RDB」とは、表形式の複数データを関連付けて使えるようにしたデータベースのことです。</t>
-  </si>
-  <si>
     <t>データベースの種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,10 +372,6 @@
   </si>
   <si>
     <t>。。。。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>データベースの理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2440,6 +2437,5517 @@
   </si>
   <si>
     <t>テーブルのデータを新規、削除、修正、検索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--　全員の年金状況を知りたい場合</t>
+  </si>
+  <si>
+    <t>-- ×</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">money </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money</t>
+    </r>
+  </si>
+  <si>
+    <t>-- ×　from a,b  / inner join両テーブル条件満足が必要</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">birthday </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identify_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 主テーブル　と　副テーブル</t>
+  </si>
+  <si>
+    <t>-- 主テーブルのレコード全部抽出すること</t>
+  </si>
+  <si>
+    <t>--　副テーブルがない場合、空で表示する</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">money </t>
+    </r>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    identify_card i </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>---全員の年金状況を知りたい、年金55000より大きいレコード</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>55000</t>
+    </r>
+  </si>
+  <si>
+    <t>-- where 条件に副テーブルの条件がありましたら、 left join は　inner joinに強制転換する</t>
+  </si>
+  <si>
+    <r>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>55000</t>
+    </r>
+  </si>
+  <si>
+    <t>結合検索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'名前'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> example_table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_INCREMENT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'主キーID'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 数字（整数）のカラムにコメントを追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VARCHAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'商品名'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 文字列カラムにコメントを追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DECIMAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'価格'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 小数を扱うカラムにコメントを追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    created_at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'作成日'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 日付カラムにコメントを追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    image LONGBLOB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'商品画像'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 画像を扱うカラムにコメントを追加</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'商品情報を格納するテーブル'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- テーブル自体にコメントを追加</t>
+    </r>
+  </si>
+  <si>
+    <t>--  検索SQL文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEACHER </t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'tanaka'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'tanaka'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>-- 曖昧検索</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sa%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'_a%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t>--　from to</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>300000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>300000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- =含め</t>
+    </r>
+  </si>
+  <si>
+    <t>-- SQL実行順位</t>
+  </si>
+  <si>
+    <t>-- from,where,select</t>
+  </si>
+  <si>
+    <r>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>desc</t>
+    </r>
+  </si>
+  <si>
+    <t>-- ３番目レコード取得したい場合　limit　利用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    TEACHER  </t>
+  </si>
+  <si>
+    <r>
+      <t>order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- default 値　asc 昇順</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 分ページ</t>
+  </si>
+  <si>
+    <t>-- 1,2番目レコード取得したい場合</t>
+  </si>
+  <si>
+    <r>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 3,4番目レコード取得したい場合</t>
+  </si>
+  <si>
+    <r>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 月給を取得する。重複場合、一つ残ります</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>distinct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher</t>
+    </r>
+  </si>
+  <si>
+    <t>-- union all/ union</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- union 重複レコード削除できる</t>
+  </si>
+  <si>
+    <r>
+      <t>union</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>-- 男性、女性　人数</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> cnt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <r>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 男性、女性　最大最小月給</t>
+  </si>
+  <si>
+    <r>
+      <t>sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> max_salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> min_salary</t>
+    </r>
+  </si>
+  <si>
+    <t>-- case when then</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'men'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'women'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ELSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'未知'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> max_salary</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> min_salary </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    teacher </t>
+  </si>
+  <si>
+    <r>
+      <t>group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>by</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    sex</t>
+  </si>
+  <si>
+    <t>--  下記の書き方はだめ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>-- コツ：　select文のところに、分析関数以外の項目はgroup byに書かないといけない</t>
+  </si>
+  <si>
+    <t>--  挿入SQL文</t>
+  </si>
+  <si>
+    <r>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TEACHER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     name                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 名前</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 月給</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> birthday                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 誕生日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 性別</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VALUES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'user01'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 名前</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>200000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 月給</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2020/01/01'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 誕生日</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF35A16B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-- 性別</t>
+    </r>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>-- 更新SQL文(自分データ確認必要)</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  TEACHER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TEACHER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> sex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'0'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- 削除SQL文(自分データ確認必要)</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  TEACHER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'user01'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>delete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  TEACHER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'user01'</t>
+    </r>
+  </si>
+  <si>
+    <t>-- その他　データベース名前、テーブル名、項目名前には、半角スペースある場合、下記の書き方で解決できる</t>
+  </si>
+  <si>
+    <r>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TEACHER A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+  </si>
+  <si>
+    <t>--★★★１．WHERE条件の書き方</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+  </si>
+  <si>
+    <t>-- もし計算式あれば、右側で書く、左側は項目のみほうが速い</t>
+  </si>
+  <si>
+    <t>-- インデックス設定しても、無効になります</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> teacher </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>--★★★２．テーブルの順位</t>
+  </si>
+  <si>
+    <t>--テーブルレコード件数と関係あります。件数多いテーブルは左側に書くほうが速い</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identify_card i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">year_money y    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">identify_card i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <t>--★★★３．WHERE条件の順位</t>
+  </si>
+  <si>
+    <t>-- 結合条件を先に書く、固定条件は後ろ</t>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identify_card i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">year_money y    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sato'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> identify_card i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">year_money y    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'sato'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+  </si>
+  <si>
+    <t>--★★★４．whereの項目に対し、indexを追加する</t>
+  </si>
+  <si>
+    <t>--index追加（しおり感じ）</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INDEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> index_salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TEACHER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> TEACHER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> all_info_year_money</t>
+    </r>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>birthday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">money </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        identify_card i </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> t</t>
+    </r>
+  </si>
+  <si>
+    <t>VIEW作成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> all_info_year_money</t>
+    </r>
+  </si>
+  <si>
+    <t>テーブル種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> トランザクションテーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よく使うテーブル（頻繫に新規、更新、削除操作あり）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マスタテーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品目コードなど項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品在庫件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一時テーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV,TSVファイルの内容をテーブルに導入して、SQL文を利用しデータを抽出すること。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「RDB」とは、表形式の複数データを関連付けて使えるようにしたデータベースのことです。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>データベースシステムの理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※共通メソッドみたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副テーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主テーブル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> year_money y </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>になる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主テーブルの条件問題なし、副テーブルの条件問題あるかも</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,7 +7955,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2500,13 +8008,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -2619,6 +8120,56 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF35A16B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0080FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3079,7 +8630,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -3095,86 +8646,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3182,15 +8708,50 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6114,12 +11675,874 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D41F2-DE6B-41BD-BE07-3613820660F8}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A3:J56"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="3" spans="1:10" ht="14.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="67"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="75"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="97"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="76"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="76"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="93">
+        <v>36892</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="76"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="93">
+        <v>37377</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="76"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="93">
+        <v>37347</v>
+      </c>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="76"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="76"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="76"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="76"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="76"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="94">
+        <v>60000</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="76"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="94">
+        <v>50000</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="76"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="76"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="68"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="76"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="76"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="76"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="80"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="76"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="76"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="76"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="80"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="76"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="76"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="76"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="76"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="76"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="76"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="76"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="76"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="76"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98" t="s">
+        <v>327</v>
+      </c>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="76"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="76"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="76"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="76"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="80"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="76"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="76"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="98"/>
+      <c r="I39" s="98"/>
+      <c r="J39" s="76"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="76"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="98"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="76"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="76"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="76"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="76"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="80"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="76"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="80"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="76"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="76"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="104" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="76"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="76"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="98"/>
+      <c r="J50" s="76"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="104" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="76"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="76"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="G53" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="76" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="76"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="105"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="76"/>
+    </row>
+    <row r="56" spans="2:10" ht="14.5" thickBot="1">
+      <c r="B56" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA8955-6250-4912-BD60-ECEF3CA4C88A}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A2:B22"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="B2" s="96" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="95"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="96" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="95"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="89" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="89" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="95"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="96" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="95"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="96" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" s="96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="89" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6132,9 +12555,7 @@
   </sheetPr>
   <dimension ref="B1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -6626,9 +13047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A657CE-5E43-42C0-8018-60AD525009F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
@@ -6643,9 +13062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B818EFD-4714-4F5E-979B-E5924685BE27}">
   <dimension ref="B19:B51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
@@ -6685,9 +13102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6821E3E7-7C5D-4173-95C8-B1BBB0297172}">
   <dimension ref="B2:B113"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
@@ -6856,9 +13271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F32B542-8F12-46BF-A0A3-EBE52A43B508}">
   <dimension ref="D3:J11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -6982,11 +13395,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4201B21D-9FA9-4803-9D00-DC71C101C58B}">
-  <dimension ref="A2:J163"/>
+  <dimension ref="A2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -6999,17 +13410,17 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7019,7 +13430,7 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="B8" s="54" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7034,13 +13445,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="111" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7049,10 +13460,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7060,10 +13471,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7071,10 +13482,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7082,7 +13493,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>55</v>
@@ -7093,10 +13504,10 @@
         <v>56</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.5" thickBot="1">
@@ -7104,1229 +13515,1809 @@
         <v>57</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.5" thickBot="1">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.5" thickBot="1">
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.5" thickBot="1">
       <c r="B24" s="68" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="68"/>
+      <c r="C25" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="71" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.5" thickBot="1">
-      <c r="B25" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="68"/>
-      <c r="C26" s="65" t="s">
+    <row r="26" spans="1:5" ht="14.5" thickBot="1">
+      <c r="B26" s="69"/>
+      <c r="C26" s="65"/>
+      <c r="E26" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.5" thickBot="1">
-      <c r="B27" s="69"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="C27" s="65"/>
       <c r="E27" s="72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.5" thickBot="1">
+      <c r="C28" s="65"/>
+      <c r="E28" s="73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="65"/>
-      <c r="E28" s="72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.5" thickBot="1">
+    <row r="29" spans="1:5">
       <c r="C29" s="65"/>
-      <c r="E29" s="73" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="65"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="C31" s="65"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.5" thickBot="1">
-      <c r="C32" s="66"/>
-    </row>
-    <row r="34" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="31" spans="1:5" ht="14.5" thickBot="1">
+      <c r="C31" s="66"/>
+    </row>
+    <row r="33" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="34" spans="2:9">
+      <c r="B34" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="75"/>
+    </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="68"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="2:9" ht="17">
+      <c r="B36" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="78"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="75"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="68"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="77"/>
-    </row>
-    <row r="37" spans="2:9" ht="17">
-      <c r="B37" s="78" t="s">
+      <c r="I38" s="76"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="80"/>
+      <c r="I39" s="76"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="77"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="79"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="77"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="80" t="s">
+      <c r="I40" s="76"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="77"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="81"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="77"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="82" t="s">
+      <c r="I41" s="76"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="76"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="78"/>
+      <c r="I43" s="76"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="82" t="s">
+      <c r="I44" s="76"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="78"/>
+      <c r="I45" s="76"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="77"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="86" t="s">
+      <c r="I46" s="76"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="80"/>
+      <c r="I47" s="76"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="76"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="76"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="76"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="78"/>
+      <c r="I51" s="76"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="76"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="80"/>
+      <c r="I53" s="76"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I54" s="76"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="76"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" s="76"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="78"/>
+      <c r="I57" s="76"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="I58" s="76"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="80"/>
+      <c r="I59" s="76"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" s="76"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I61" s="76"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="I62" s="76"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="78"/>
+      <c r="I63" s="76"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="76"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="78"/>
+      <c r="I65" s="76"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="I66" s="76"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="80"/>
+      <c r="I67" s="76"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="76"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I69" s="76"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I70" s="76"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="78"/>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="I72" s="76"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="80"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74" s="76"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="76"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="77"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="79"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="83" t="s">
+      <c r="I76" s="76"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="68"/>
+      <c r="I77" s="76"/>
+    </row>
+    <row r="78" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B78" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="84"/>
+    </row>
+    <row r="79" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="80" spans="2:9">
+      <c r="B80" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="75"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="80"/>
+      <c r="I81" s="76"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="77"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="79"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="77"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="77"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="81"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="77"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="77"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="77"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="87" t="s">
+      <c r="I82" s="76"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83" s="76"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="I84" s="76"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="68"/>
+      <c r="I85" s="76"/>
+    </row>
+    <row r="86" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B86" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="77"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="79"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="77"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="77"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="81"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="77"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="77"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="77"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="77"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="79"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="77"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="81"/>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="77"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="77"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="77"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="77"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="79"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="77"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="77"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="79"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="77"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="77"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="81"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="77"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="77"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="77"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="77"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="79"/>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="77"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="77"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="81"/>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="77"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="77"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="77"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="77"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="68"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="77"/>
-    </row>
-    <row r="79" spans="2:9" ht="14.5" thickBot="1">
-      <c r="B79" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="85"/>
-    </row>
-    <row r="80" spans="2:9" ht="14.5" thickBot="1"/>
-    <row r="81" spans="2:9">
-      <c r="B81" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="75"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="81"/>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="77"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="77"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
-      <c r="I84" s="77"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="82" t="s">
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="83"/>
+      <c r="H86" s="83"/>
+      <c r="I86" s="84"/>
+    </row>
+    <row r="89" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="90" spans="2:9">
+      <c r="B90" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="74"/>
+      <c r="H90" s="74"/>
+      <c r="I90" s="75"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="80"/>
+      <c r="I91" s="76"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I92" s="76"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93" s="76"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="I94" s="76"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="I95" s="76"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I96" s="76"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="I97" s="76"/>
+      <c r="J97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="I98" s="76"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" s="76"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="I100" s="76"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="68"/>
+      <c r="I101" s="76"/>
+    </row>
+    <row r="102" spans="2:10" ht="17">
+      <c r="B102" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="I102" s="76"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="78"/>
+      <c r="I103" s="76"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="I104" s="76"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="76"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="I106" s="76"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="I107" s="76"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="I108" s="76"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="68"/>
+      <c r="I109" s="76"/>
+    </row>
+    <row r="110" spans="2:10" ht="14.5" thickBot="1">
+      <c r="B110" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
+      <c r="I110" s="84"/>
+    </row>
+    <row r="111" spans="2:10" ht="14.5" thickBot="1"/>
+    <row r="112" spans="2:10">
+      <c r="B112" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
-      <c r="I85" s="77"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="68"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
-      <c r="I86" s="77"/>
-    </row>
-    <row r="87" spans="2:9" ht="14.5" thickBot="1">
-      <c r="B87" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="84"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="84"/>
-      <c r="G87" s="84"/>
-      <c r="H87" s="84"/>
-      <c r="I87" s="85"/>
-    </row>
-    <row r="90" spans="2:9" ht="14.5" thickBot="1"/>
-    <row r="91" spans="2:9">
-      <c r="B91" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="90"/>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="91"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="92"/>
-      <c r="H92" s="92"/>
-      <c r="I92" s="93"/>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="92"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="93"/>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
-      <c r="I94" s="93"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C95" s="92"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
-      <c r="I95" s="93"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="92"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
-      <c r="I96" s="93"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="C97" s="92"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
-      <c r="I97" s="93"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="92"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
-      <c r="I98" s="93"/>
-      <c r="J98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="86" t="s">
+      <c r="C112" s="74"/>
+      <c r="D112" s="74"/>
+      <c r="E112" s="74"/>
+      <c r="F112" s="74"/>
+      <c r="G112" s="74"/>
+      <c r="H112" s="74"/>
+      <c r="I112" s="75"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="80"/>
+      <c r="I113" s="76"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I114" s="76"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="I115" s="76"/>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" s="76"/>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="68"/>
+      <c r="I117" s="76"/>
+    </row>
+    <row r="118" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B118" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC02299-AD93-49C6-94E5-3741C534FA84}">
+  <dimension ref="A4:F73"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="4" spans="2:6">
+      <c r="B4" s="89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
-      <c r="I99" s="93"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="86" t="s">
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="C100" s="92"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
-      <c r="I100" s="93"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="92"/>
-      <c r="H101" s="92"/>
-      <c r="I101" s="93"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="94"/>
-      <c r="C102" s="92"/>
-      <c r="D102" s="92"/>
-      <c r="E102" s="92"/>
-      <c r="F102" s="92"/>
-      <c r="G102" s="92"/>
-      <c r="H102" s="92"/>
-      <c r="I102" s="93"/>
-    </row>
-    <row r="103" spans="2:10" ht="17">
-      <c r="B103" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="92"/>
-      <c r="D103" s="92"/>
-      <c r="E103" s="92"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="92"/>
-      <c r="H103" s="92"/>
-      <c r="I103" s="93"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="96"/>
-      <c r="C104" s="92"/>
-      <c r="D104" s="92"/>
-      <c r="E104" s="92"/>
-      <c r="F104" s="92"/>
-      <c r="G104" s="92"/>
-      <c r="H104" s="92"/>
-      <c r="I104" s="93"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="97" t="s">
-        <v>112</v>
-      </c>
-      <c r="C105" s="92"/>
-      <c r="D105" s="92"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="92"/>
-      <c r="G105" s="92"/>
-      <c r="H105" s="92"/>
-      <c r="I105" s="93"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="97" t="s">
-        <v>113</v>
-      </c>
-      <c r="C106" s="92"/>
-      <c r="D106" s="92"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="93"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="97" t="s">
-        <v>114</v>
-      </c>
-      <c r="C107" s="92"/>
-      <c r="D107" s="92"/>
-      <c r="E107" s="92"/>
-      <c r="F107" s="92"/>
-      <c r="G107" s="92"/>
-      <c r="H107" s="92"/>
-      <c r="I107" s="93"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="92"/>
-      <c r="D108" s="92"/>
-      <c r="E108" s="92"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="92"/>
-      <c r="H108" s="92"/>
-      <c r="I108" s="93"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="97" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="89" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="95"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="108"/>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="95" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="B49" s="70" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" s="70" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="70" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="B54" s="70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="B55" s="90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="C66" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="C67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="C68" s="55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="C69" s="55">
+        <v>1</v>
+      </c>
+      <c r="D69" s="55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="C70" s="55">
+        <v>0</v>
+      </c>
+      <c r="D70" s="55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="C73" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969951C4-BABE-4887-B0AE-66E391B557B1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:B188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="92"/>
-      <c r="D109" s="92"/>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
-      <c r="G109" s="92"/>
-      <c r="H109" s="92"/>
-      <c r="I109" s="93"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="94"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="92"/>
-      <c r="H110" s="92"/>
-      <c r="I110" s="93"/>
-    </row>
-    <row r="111" spans="2:10" ht="14.5" thickBot="1">
-      <c r="B111" s="98" t="s">
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="C111" s="99"/>
-      <c r="D111" s="99"/>
-      <c r="E111" s="99"/>
-      <c r="F111" s="99"/>
-      <c r="G111" s="99"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="100"/>
-    </row>
-    <row r="112" spans="2:10" ht="14.5" thickBot="1"/>
-    <row r="113" spans="2:9">
-      <c r="B113" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="75"/>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="81"/>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="77"/>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="77"/>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="76"/>
-      <c r="I116" s="77"/>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
-      <c r="I117" s="77"/>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="68"/>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
-      <c r="I118" s="77"/>
-    </row>
-    <row r="119" spans="2:9" ht="14.5" thickBot="1">
-      <c r="B119" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="C119" s="84"/>
-      <c r="D119" s="84"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="84"/>
-      <c r="G119" s="84"/>
-      <c r="H119" s="84"/>
-      <c r="I119" s="85"/>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="101" t="s">
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="70" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="70" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="F124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="70" t="s">
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="70" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="8" spans="2:2">
+      <c r="B8" s="90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="95"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="95"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="95"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="95"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="95"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="95"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="95"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="95"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="95"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="96" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="95"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="95"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="96" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="95"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="95"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="95"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="95"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="95"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="95"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="95"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="95"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
       <c r="B127" s="70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" s="102" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="C133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6">
-      <c r="C134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6">
-      <c r="B135" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="C136" t="s">
-        <v>134</v>
-      </c>
-      <c r="F136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="C137" t="s">
-        <v>135</v>
-      </c>
-      <c r="F137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="B138" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="C139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="C140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="103"/>
-      <c r="F144" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="F145" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="G145" s="105" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="106" t="s">
-        <v>145</v>
-      </c>
-      <c r="F146" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="G146" s="108">
-        <v>36892</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147" s="106" t="s">
-        <v>146</v>
-      </c>
-      <c r="F147" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="G147" s="108">
-        <v>37377</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="F148" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="G148" s="108">
-        <v>37347</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="109" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7">
-      <c r="B150" s="103"/>
-    </row>
-    <row r="151" spans="2:7">
-      <c r="B151" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="F151" s="110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7">
-      <c r="B152" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="F152" s="105" t="s">
-        <v>159</v>
-      </c>
-      <c r="G152" s="105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="107" t="s">
-        <v>154</v>
-      </c>
-      <c r="G153" s="111">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7">
-      <c r="B154" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="F154" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="G154" s="111">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7">
-      <c r="B155" s="109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="C159" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="C160" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3">
-      <c r="C163" t="s">
-        <v>164</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="95"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="70" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="95"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="95"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="95"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="95"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="95"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="95"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="96" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="90" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/res/説明jp.xlsx
+++ b/res/説明jp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git080302\takada\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CB1391-0C13-46DC-8694-0308FE01A1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FFEB6-BF2A-4FBA-B1A4-14AC4B3DB710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,15 @@
     <sheet name="jarファイル参照" sheetId="6" r:id="rId5"/>
     <sheet name="JS株価指値" sheetId="3" r:id="rId6"/>
     <sheet name="データベース" sheetId="7" r:id="rId7"/>
-    <sheet name="テーブル" sheetId="11" r:id="rId8"/>
-    <sheet name="SQL単テーブル" sheetId="9" r:id="rId9"/>
-    <sheet name="SQL複数テーブル" sheetId="8" r:id="rId10"/>
-    <sheet name="SQLチューニング" sheetId="10" r:id="rId11"/>
+    <sheet name="６.DOCKER" sheetId="16" r:id="rId8"/>
+    <sheet name="テーブル" sheetId="11" r:id="rId9"/>
+    <sheet name="SQL単テーブル" sheetId="9" r:id="rId10"/>
+    <sheet name="SQL複数テーブル" sheetId="8" r:id="rId11"/>
+    <sheet name="SQLチューニング" sheetId="10" r:id="rId12"/>
+    <sheet name="ファイルIO" sheetId="12" r:id="rId13"/>
+    <sheet name="JDBC" sheetId="13" r:id="rId14"/>
+    <sheet name="javaプロジェクト" sheetId="14" r:id="rId15"/>
+    <sheet name="JAVA宿題" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="661">
   <si>
     <t>1G</t>
     <phoneticPr fontId="2"/>
@@ -7949,13 +7954,1879 @@
   <si>
     <t>主テーブルの条件問題なし、副テーブルの条件問題あるかも</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京、名古屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer.flush();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer.write(reader.readLine());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer = new BufferedWriter(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田中</t>
+  </si>
+  <si>
+    <t>田中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀行振込</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１０００円</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作①</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田中の口座　残高＝残高ー１０００</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>t_money</t>
+  </si>
+  <si>
+    <t>update t_money set money = money - 1000 where name='田中';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作②</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤の口座　残高＝残高+１０００</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update t_money set money = money + 1000 where name='田中';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震など災害ありましたら、操作②実行不可になる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション処理付き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション処理無し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション開始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション終了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollback</t>
+  </si>
+  <si>
+    <t>ロールバック</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoCommit off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoCommit On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作③</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>コミット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※別APPからみると、そのまま１００００円です。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション内部で、テーブルは９０００円になりました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション内部で、データ回復した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update t_money set money = money + 1000 where name='佐藤';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※実テーブルに反映した</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作１００００</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>データベースシステム起動後</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ロールバック　２０M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上記以外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２８０M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>メモリ（３００M）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※２０M超える場合、死んだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランザクション処理のポイント</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部正常に処理した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>災害あれれ、処理しない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラメーターを使って、効率高くなる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CACHE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name a,money yyy,now() now FROM t_money where name = '田中'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name a,money yyy,now() now FROM t_money where name = '佐藤'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>パラメーター利用の場合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name a,money yyy,now() now FROM t_money where name =？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT name a,money yyy,now() now FROM t_money where name = '伊藤'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１．JAVAプロジェクト（JARファイル参照）</t>
+  </si>
+  <si>
+    <t>２．JAVAプロジェクト（MAVEN）</t>
+  </si>
+  <si>
+    <t>src/main/java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaソース</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaソース以外のファイル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaソース以外のファイル(テスト用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaソース(テスト用)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>３．JAVAプロジェクト（GRADLE）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>で管理する</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/maveTest/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pom.xml</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/gradleTest/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>build.gradle</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ああああ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いいいいい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqlo_20240102.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqlo_20240103.xlsx</t>
+  </si>
+  <si>
+    <t>uniqlo_20240208.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴下</t>
+  </si>
+  <si>
+    <t>Tシャツ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例：入力データ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出力ファイル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>売上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqlo_20240103.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:/work/file/2024/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定フォルダーに全部ファイルを取得します</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当対象をフィルターします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定フォルダーに、ファイル名がuniqlo_yyyymmdd.xlsxようなファイルを処理対象として、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月の売り上げを指定ファイルに出力してください。</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>t_money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>varchar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'my name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>money</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'money'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>COMMENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'口座'</t>
+    </r>
+  </si>
+  <si>
+    <t>下記宿題はJAVAで実現ください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniqlo_20240102.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要在Windows上安装Docker Hub中的MySQL 8并使用磁盘卷参数，您可以按照以下步骤操作：</t>
+  </si>
+  <si>
+    <t>1. 首先，确保您已经在Windows上安装了Docker Desktop。您可以从Docker官方网站下载并安装Docker Desktop。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Docker Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并确保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Docker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已成功启动。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>docker version</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 打开命令提示符或PowerShell，并运行以下命令以拉取MySQL 8的Docker镜像：</t>
+  </si>
+  <si>
+    <t>docker pull mysql:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建一个目录来存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据。例如，您可以在创建一个文件夹。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C:/work/docker-volumes/mysql-data</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建一个目录来存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据。例如，您可以在创建一个文件夹。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/Users/user/Documents/docker-volumes/mysql-data</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 运行以下命令来启动MySQL容器，并将磁盘卷参数设置为刚刚创建的目录：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d -p 3306:3306 --name mysql-container -e MYSQL_ROOT_PASSWORD=123456 -v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>C:/work/docker-volumes/mysql-data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCBD2EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:/var/lib/mysql mysql:8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">docker run -d -p 3306:3306 --name mysql-container -e MYSQL_ROOT_PASSWORD=123456 -v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/Users/user/Documents/docker-volumes/mysql-data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCBD2EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:/var/lib/mysql mysql:8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在上面的命令中，将123456替换为您想要设置的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MySQL root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 等待一段时间，直到MySQL容器成功启动。您可以使用以下命令检查容器的状态：</t>
+  </si>
+  <si>
+    <t>docker ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果容器的状态为"Up"，则表示MySQL已成功安装并运行。</t>
+  </si>
+  <si>
+    <t>现在，您已经成功在Windows上使用磁盘卷参数安装了Docker Hub中的MySQL 8。您可以使用MySQL客户端工具连接到MySQL数据库，并开始使用它。</t>
+  </si>
+  <si>
+    <t>用下面的命令可以进入LINUX 命令行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ```</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   docker exec -it mysql-container bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   mysql -uroot -p123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORACLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oracle Database </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:8080 -p 1521:1521 --restart always --privileged=true --name myoracle -v C:\work\docker-volumes\oracle-data:/u01/app/oracle jonemark/oracle11gr2:11.2.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run -d -p 8080:8080 -p 1521:1521 --restart always --privileged=true --name myoracle -v /Users/user/tools/docker-volumes/oracle-data:/u01/app/oracle jonemark/oracle11gr2:11.2.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>镜像运行容器后默认的访问配置如下：</t>
+    </r>
+  </si>
+  <si>
+    <t>hostname: localhost</t>
+  </si>
+  <si>
+    <t>port: 1521</t>
+  </si>
+  <si>
+    <t>sid: EE</t>
+  </si>
+  <si>
+    <t>service name: EE.oracle.docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username: system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password: oracle</t>
+  </si>
+  <si>
+    <t>1、通过docker exec命令进到容器内部。</t>
+  </si>
+  <si>
+    <t>docker exec -it myoracle bash</t>
+  </si>
+  <si>
+    <t>2、为了每次重启此Oracle容器后不会出错，需要执行以下命令</t>
+  </si>
+  <si>
+    <t>cp /u01/app/oracle/admin/EE/pfile/init.ora /u01/app/oracle/product/11.2.0/EE/dbs/initEE.ora</t>
+  </si>
+  <si>
+    <t>POSTGRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker run --name mypostgres -e POSTGRES_PASSWORD=123456 -p 5432:5432 -v /Users/user/tools/docker-volumes/postgre-data:/var/lib/postgresql/data -d postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBANTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要在Windows上安装带有磁盘卷参数的Ubuntu 22.04.3 LTS，您可以按照以下步骤操作：</t>
+  </si>
+  <si>
+    <t>1. 首先，您需要安装Docker Desktop，它是在Windows上运行Docker容器的工具。您可以从Docker官方网站（https://www.docker.com/products/docker-desktop）下载并安装Docker Desktop。</t>
+  </si>
+  <si>
+    <t>2. 安装完成后，启动Docker Desktop，并确保Docker引擎正在运行。</t>
+  </si>
+  <si>
+    <t>3. 打开命令提示符或PowerShell，并运行以下命令以从Docker Hub下载并运行Ubuntu 22.04.3 LTS容器：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   docker run -it -v &lt;本地目录&gt;:&lt;容器目录&gt; ubuntu:22.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   将`&lt;本地目录&gt;`替换为您要挂载到容器的本地目录的路径，并将`&lt;容器目录&gt;`替换为容器内要挂载的目录的路径。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   例如，要将本地的`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:/work/docker-volumes/ubuntu-data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`目录挂载到容器的`/data`目录，您可以运行以下命令：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   docker run -it -v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C:/work/docker-volumes/ubuntu-data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:/data  --name ubuntu-container ubuntu:22.04</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   docker run -it -v </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/Users/user/Documents/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>docker-volumes/ubuntu-data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:/data  --name ubuntu-container ubuntu:22.04</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   这将在交互模式下启动一个新的Ubuntu 22.04.3 LTS容器，并将本地的`C:\data`目录挂载到容器的`/data`目录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 您现在可以在容器中执行各种操作，例如安装软件包、运行命令等。要退出容器，请使用`exit`命令。</t>
+  </si>
+  <si>
+    <t>请注意，Ubuntu 22.04.3 LTS是一个虚拟的操作系统环境，它运行在Docker容器中。在容器中所做的更改不会影响到您的Windows主机系统。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   docker exec -it ubuntu-container bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Ubuntu上安装VI命令很简单。只需按照以下步骤操作：</t>
+  </si>
+  <si>
+    <t>1. 打开终端。你可以通过按下`Ctrl+Alt+T`来快速打开终端。</t>
+  </si>
+  <si>
+    <t>2. 在终端中输入以下命令以安装VI编辑器：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   apt-get update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   apt-get install vim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   输入密码后，系统会开始下载并安装VI编辑器。</t>
+  </si>
+  <si>
+    <t>3. 安装完成后，你可以在终端中输入`vi`命令来启动VI编辑器。</t>
+  </si>
+  <si>
+    <t>现在你已经成功安装了VI命令，可以使用它来编辑文本文件。</t>
+  </si>
+  <si>
+    <t>Linux 是一种开源的操作系统，具有强大的命令行工具。下面是一些常用的 Linux 命令及其用法和示例：</t>
+  </si>
+  <si>
+    <t>1. `ls`：列出当前目录下的文件和文件夹。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`ls [选项] [文件/目录]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`ls -l` 列出详细信息，包括文件权限、所有者、大小和修改时间。</t>
+  </si>
+  <si>
+    <t>2. `cd`：切换当前工作目录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`cd [目录]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`cd /home/user` 切换到 "/home/user" 目录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. `pwd`：显示当前工作目录的路径。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`pwd`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`pwd` 显示 "/home/user"。</t>
+  </si>
+  <si>
+    <t>4. `mkdir`：创建新的目录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`mkdir [目录名]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`mkdir new_folder` 创建名为 "new_folder" 的新目录。</t>
+  </si>
+  <si>
+    <t>5. `rm`：删除文件或目录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`rm [选项] [文件/目录]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`rm file.txt` 删除名为 "file.txt" 的文件。</t>
+  </si>
+  <si>
+    <t>6. `cp`：复制文件或目录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`cp [选项] [源文件/目录] [目标文件/目录]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`cp file.txt new_folder/` 将 "file.txt" 复制到 "new_folder" 目录。</t>
+  </si>
+  <si>
+    <t>7. `mv`：移动文件或目录，或者重命名文件或目录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`mv [选项] [源文件/目录] [目标文件/目录]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`mv file.txt new_folder/` 将 "file.txt" 移动到 "new_folder" 目录。</t>
+  </si>
+  <si>
+    <t>8. `cat`：显示文件内容。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`cat [文件]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`cat file.txt` 显示 "file.txt" 文件的内容。</t>
+  </si>
+  <si>
+    <t>9. `grep`：在文件中搜索指定模式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 用法：`grep [选项] [模式] [文件]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 示例：`grep "hello" file.txt` 在 "file.txt" 文件中搜索包含 "hello" 的行。</t>
+  </si>
+  <si>
+    <t>10. `chmod`：修改文件或目录的权限。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 用法：`chmod [权限] [文件/目录]`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    - 示例：`chmod 755 file.txt` 将 "file.txt" 的权限设置为 755。</t>
+  </si>
+  <si>
+    <t>这只是一小部分常用的 Linux 命令，还有很多其他命令可以用于不同的任务。你可以通过查阅 Linux 命令的文档或者使用 `man` 命令来获取更多信息。</t>
+  </si>
+  <si>
+    <t>Vim是一种文本编辑器，常用于Linux系统中。它具有很多强大的功能和命令。下面是一些常用的Vim命令的用法和例子：</t>
+  </si>
+  <si>
+    <t>1. 打开文件：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `vim filename`：打开名为filename的文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `vim`：打开一个空白文件。</t>
+  </si>
+  <si>
+    <t>2. 保存和退出：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `:w`：保存文件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `:q`：退出Vim。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `:wq`：保存并退出Vim。</t>
+  </si>
+  <si>
+    <t>3. 移动光标：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `h`：向左移动一个字符。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `j`：向下移动一行。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `k`：向上移动一行。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `l`：向右移动一个字符。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `0`：移动到行首。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `$`：移动到行尾。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `gg`：移动到文件开头。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `G`：移动到文件末尾。</t>
+  </si>
+  <si>
+    <t>4. 插入和编辑文本：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `i`：在光标前插入文本。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `a`：在光标后插入文本。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `o`：在当前行下方插入新行。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `O`：在当前行上方插入新行。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `x`：删除光标处的字符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `dd`：删除当前行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `yy`：复制当前行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `p`：粘贴复制的内容。</t>
+  </si>
+  <si>
+    <t>5. 搜索和替换：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `/pattern`：向下搜索pattern。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `?pattern`：向上搜索pattern。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `n`：定位到下一个匹配项。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `N`：定位到上一个匹配项。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `:s/old/new`：将当前行第一个匹配项的old替换为new。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `:s/old/new/g`：将当前行所有匹配项的old替换为new。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - `:%s/old/new/g`：将文件中所有匹配项的old替换为new。</t>
+  </si>
+  <si>
+    <t>这些只是Vim命令的一部分，Vim还有许多其他功能和命令。你可以通过在终端中输入`vimtutor`来学习更多关于Vim的用法和技巧。</t>
+  </si>
+  <si>
+    <t>touch 1.txt</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>vim 1.txt</t>
+  </si>
+  <si>
+    <t>点I进入插入模式后</t>
+  </si>
+  <si>
+    <t>输入hello,world</t>
+  </si>
+  <si>
+    <t>点ESC键进入命令行模式</t>
+  </si>
+  <si>
+    <t>输入:wq 保存并退出</t>
+  </si>
+  <si>
+    <t>cat 1.txt 确认刚才输入的文件内容</t>
+  </si>
+  <si>
+    <t>注意：LINUX文本文件的换行和WINDOWS不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINUX: LF                             换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINDOWS: CRLF                 回车换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache James</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache James是一个开源的邮件服务器，可以用于搭建本地的邮箱服务。使用Docker可以更加方便地部署和管理Apache James。以下是一些简单的步骤，可以帮助你在本地使用Docker搭建Apache James邮箱服务：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. **安装Docker和Docker Compose：**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - 如果你还没有安装Docker，可以参考Docker的官方文档来安装：https://docs.docker.com/get-docker/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Docker Compose通常与Docker一起安装，但如果你需要单独安装，可以参考：https://docs.docker.com/compose/install/</t>
+  </si>
+  <si>
+    <t>2. **创建Docker Compose文件：**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   创建一个名为`docker-compose.yml`的文件，内容如下：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ```yaml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   version: '3.8'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   services:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     james:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       image: linagora/james:3.7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       ports:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "25:25"     # SMTP端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "80:80"     # HTTP端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "110:110"   # POP3端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "143:143"   # IMAP端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "8025:8025" # James管理端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       volumes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "./james-data:/root/conf"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   这个Compose文件会启动一个Apache James容器，并映射了SMTP、HTTP、POP3、IMAP和管理端口到主机上，同时将数据卷挂载到`./james-data`目录，用于保存James的配置和邮件数据。</t>
+  </si>
+  <si>
+    <t>3. **启动Apache James容器：**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   在终端中，进入包含`docker-compose.yml`文件的目录，然后执行以下命令启动容器：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   docker-compose up -d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   这会在后台启动Apache James容器。</t>
+  </si>
+  <si>
+    <t>4. **访问James管理界面：**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   打开浏览器，访问`http://localhost:8025`，你会看到Apache James的管理界面。默认的管理员账号是`root@localhost`，密码是`root`。</t>
+  </si>
+  <si>
+    <t>5. **使用邮箱服务：**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   现在，你可以使用SMTP、POP3、IMAP和HTTP来发送和接收邮件了。可以使用任何邮件客户端，如Outlook、Thunderbird或者Webmail来连接你的本地邮箱服务。</t>
+  </si>
+  <si>
+    <t>6. **管理Apache James：**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   你可以通过James的管理界面来管理用户、邮箱域等配置，也可以通过编辑挂载的`james-data`目录下的配置文件来进行更高级的配置修改。</t>
+  </si>
+  <si>
+    <t>通过这些步骤，你可以在本地快速搭建一个Apache James邮箱服务，并且使用Docker来简化管理。</t>
+  </si>
+  <si>
+    <t>要在 Windows 10 上使用 Docker 部署 Apache James 并创建带有磁盘映射的本地邮箱服务，您可以按照以下步骤操作：</t>
+  </si>
+  <si>
+    <t>1. **安装 Docker Desktop**：在 Windows 10 上安装 Docker Desktop。您可以从 Docker 官方网站下载并按照说明安装。</t>
+  </si>
+  <si>
+    <t>2. **准备 Apache James Docker 镜像**：从 Docker Hub 上获取 Apache James 的 Docker 镜像。您可以使用以下命令从 Docker Hub 获取 Apache James 的最新版本：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   docker pull apache/james</t>
+  </si>
+  <si>
+    <t>3. **创建本地目录**：在您的计算机上创建一个目录，用于存储 Apache James 的配置文件、邮箱数据等。例如，您可以在您的用户目录下创建一个名为 `james_data` 的文件夹。</t>
+  </si>
+  <si>
+    <t>4. **编写 Docker Compose 文件**：创建一个名为 `docker-compose.yml` 的文件，用于配置 Apache James 服务及其磁盘映射。下面是一个示例 `docker-compose.yml` 文件：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   version: '3'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       image: apache/james</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       container_name: james</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "25:25"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "110:110"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "143:143"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "465:465"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "587:587"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "993:993"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - "9999:9999"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - ./james_data:/root/james-server-app/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       environment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - ENABLE_SMTP=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - ENABLE_POP3=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - ENABLE_IMAP=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         - ENABLE_MANAGEABLE=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   在这个示例中，我们将 Apache James 服务的端口映射到主机的相应端口，并将 `james_data` 目录映射到容器内部的 `/root/james-server-app/data` 目录。</t>
+  </si>
+  <si>
+    <t>5. **启动 Apache James 服务**：在命令行中，导航到包含 `docker-compose.yml` 文件的目录，并运行以下命令：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   这将启动 Apache James 服务，并且该服务将使用您提供的磁盘映射进行配置。</t>
+  </si>
+  <si>
+    <t>6. **创建新邮箱用户**：要创建新的邮箱用户，您需要使用 Apache James 的管理界面或命令行工具。Apache James 提供了管理用户的 REST API，您可以通过发送适当的 POST 请求来创建用户。您可以使用 cURL 或其他 HTTP 客户端来执行此操作。例如，要使用 cURL 创建一个名为 `user@example.com` 的新用户，可以执行以下命令：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   curl -X POST http://localhost:9999/users -H "Content-Type: application/json" -d '{"username":"user@example.com","password":"password"}'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   请确保将 `password` 替换为实际的密码。</t>
+  </si>
+  <si>
+    <t>通过按照以上步骤操作，您应该能够在 Windows 10 上使用 Docker 创建带有磁盘映射的本地 Apache James 邮箱服务，并成功创建新的邮箱用户。</t>
+  </si>
+  <si>
+    <t>这个 Docker 配置文件定义了一个名为 "james" 的 Docker 服务,它使用了 "apache/james" 这个 Docker 镜像。</t>
+  </si>
+  <si>
+    <t>具体内容如下:</t>
+  </si>
+  <si>
+    <t>1. `version: '3'`: 表示使用的是 Docker Compose 版本 3。</t>
+  </si>
+  <si>
+    <t>2. `services`: 定义了一个名为 "james" 的服务。</t>
+  </si>
+  <si>
+    <t>3. `image: apache/james`: 表示使用 "apache/james" 这个 Docker 镜像作为服务的基础镜像。</t>
+  </si>
+  <si>
+    <t>4. `container_name: james`: 将容器命名为 "james"。</t>
+  </si>
+  <si>
+    <t>5. `ports`: 将容器内部的端口映射到主机的端口上,包括 SMTP(25)、POP3(110)、IMAP(143)、SMTPS(465)、SUBMISSION(587)、IMAPS(993) 和 管理端口(9999)。</t>
+  </si>
+  <si>
+    <t>6. `volumes`: 将主机上的 "./james_data" 目录挂载到容器内的 "/root/james-server-app/data" 目录,用于持久化 James 服务的数据。</t>
+  </si>
+  <si>
+    <t>7. `environment`: 设置了一些环境变量,包括启用 SMTP、POP3 和 IMAP 协议,以及启用管理功能。</t>
+  </si>
+  <si>
+    <t>总的来说,这个 Docker 配置文件启动了一个 Apache James 邮件服务器容器,并将相关的端口和数据目录进行了映射和配置。这样可以方便地在 Docker 环境中运行和管理 James 邮件服务器。</t>
+  </si>
+  <si>
+    <t>这个 Docker 配置文件定义了一个名为 "james" 的 Docker 服务,它使用 "apache/james" 镜像作为基础镜像。以下是各个端口号的含义:</t>
+  </si>
+  <si>
+    <t>1. `25:25`: SMTP (Simple Mail Transfer Protocol) 端口,用于发送和接收电子邮件。</t>
+  </si>
+  <si>
+    <t>2. `110:110`: POP3 (Post Office Protocol version 3) 端口,用于从邮件服务器下载电子邮件。</t>
+  </si>
+  <si>
+    <t>3. `143:143`: IMAP (Internet Message Access Protocol) 端口,用于从邮件服务器访问和管理电子邮件。</t>
+  </si>
+  <si>
+    <t>4. `465:465`: SMTPS (SMTP over SSL/TLS) 端口,用于通过 SSL/TLS 加密的 SMTP 连接发送电子邮件。</t>
+  </si>
+  <si>
+    <t>5. `587:587`: SMTP 端口,通常用于客户端发送电子邮件。</t>
+  </si>
+  <si>
+    <t>6. `993:993`: IMAPS (IMAP over SSL/TLS) 端口,用于通过 SSL/TLS 加密的 IMAP 连接访问电子邮件。</t>
+  </si>
+  <si>
+    <t>7. `9999:9999`: 这是 James 服务器的管理端口,用于管理和配置 James 服务器。</t>
+  </si>
+  <si>
+    <t>此外,该配置还挂载了一个名为 "james_data" 的数据卷,用于存储 James 服务器的数据。最后,它设置了几个环境变量,启用了 SMTP、POP3 和 IMAP 协议,并启用了可管理性。</t>
+  </si>
+  <si>
+    <t>总的来说,这个 Docker 配置文件定义了一个 James 邮件服务器,并暴露了各种常见的邮件协议端口,以便客户端可以连接和使用该服务器。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8175,8 +10046,119 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCBD2EA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8243,8 +10225,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -8571,11 +10577,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -8720,7 +10757,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8730,7 +10766,7 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8752,6 +10788,70 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11410,6 +13510,508 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2634421</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6370374</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03C0190-7377-4FE0-B714-4726B75C9DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2939221" y="5245537"/>
+          <a:ext cx="3735953" cy="1709684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: カード 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7CAEC6-EAE1-AE37-724E-9AEF8A675759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1412875" y="730251"/>
+          <a:ext cx="920750" cy="420687"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: カード 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCC3B83-1F0C-4130-BF7B-E7A0216A63BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1412875" y="730251"/>
+          <a:ext cx="920750" cy="420687"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: カード 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0D4C04-5517-4918-9EFA-07E4B4695DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1412875" y="3782219"/>
+          <a:ext cx="920750" cy="420688"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedCard">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900"/>
+            <a:t>東京、名古屋</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>405423</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>34192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="左中かっこ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DE38D9-58FD-FBF9-73A2-A1F76B21615D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8596923" y="8157307"/>
+          <a:ext cx="488462" cy="1567962"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161409</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C1E5FD-E1EA-8D16-4341-E8E718200851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="355600"/>
+          <a:ext cx="4123809" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143331</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8969D724-4BA3-2EA7-2071-3F34307DA785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="3064498"/>
+          <a:ext cx="12671881" cy="4932269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>34416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>270390</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>163883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC5AC77-D133-E0E2-C2EB-DEFCACE91EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679450" y="10905616"/>
+          <a:ext cx="15440540" cy="7063667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83038</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464038</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 右 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F4DA26-2311-6222-1916-BD07DF7EEC31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2627923" y="7038731"/>
+          <a:ext cx="1040423" cy="239346"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11673,18 +14275,934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969951C4-BABE-4887-B0AE-66E391B557B1}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B1:B188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="95"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="95"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="95"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="95"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="95"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="95"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="95"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="70" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="95"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="96" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="70" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="95"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="96" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="95"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="95"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="96" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="95"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="89" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="95"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="95"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="96" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="95"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="95"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="96" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="89" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="95"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="95"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="70" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="95"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="96" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="95"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="96" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="70" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="70" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="70" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="95"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="95"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="70" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="70" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="95"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="95"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="96" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="70" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="70" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="90" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="90" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="89" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="95"/>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="96" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="95"/>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="96" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1D41F2-DE6B-41BD-BE07-3613820660F8}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -11713,693 +15231,356 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="97"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98" t="s">
+      <c r="F5" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
       <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
       <c r="F6" s="91" t="s">
         <v>141</v>
       </c>
       <c r="G6" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
       <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
       <c r="F7" s="92" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="93">
         <v>36892</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
       <c r="J7" s="76"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
       <c r="F8" s="92" t="s">
         <v>152</v>
       </c>
       <c r="G8" s="93">
         <v>37377</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
       <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
       <c r="F9" s="92" t="s">
         <v>151</v>
       </c>
       <c r="G9" s="93">
         <v>37347</v>
       </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
       <c r="J9" s="76"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="101" t="s">
+      <c r="B10" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
       <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
       <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
       <c r="J12" s="76"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
       <c r="F13" s="91" t="s">
         <v>157</v>
       </c>
       <c r="G13" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
       <c r="J13" s="76"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
       <c r="F14" s="92" t="s">
         <v>152</v>
       </c>
       <c r="G14" s="94">
         <v>60000</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
       <c r="J14" s="76"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
       <c r="F15" s="92" t="s">
         <v>151</v>
       </c>
       <c r="G15" s="94">
         <v>50000</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
       <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
       <c r="J16" s="76"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="68"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
       <c r="J17" s="76"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
       <c r="J18" s="76"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
       <c r="J19" s="76"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
       <c r="J20" s="76"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="80"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
       <c r="J21" s="76"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
       <c r="J22" s="76"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
       <c r="J23" s="76"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="80"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
       <c r="J24" s="76"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
       <c r="J25" s="76"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
       <c r="J26" s="76"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
       <c r="J27" s="76"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
       <c r="J28" s="76"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="105" t="s">
+      <c r="B29" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
       <c r="J29" s="76"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
       <c r="J30" s="76"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
       <c r="J31" s="76"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98" t="s">
+      <c r="F32" t="s">
         <v>328</v>
       </c>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
       <c r="J32" s="76"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98" t="s">
+      <c r="F33" t="s">
         <v>327</v>
       </c>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
       <c r="J33" s="76"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="105" t="s">
+      <c r="B34" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
       <c r="J34" s="76"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="98"/>
       <c r="J35" s="76"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
       <c r="J36" s="76"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="80"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
       <c r="J37" s="76"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="98"/>
       <c r="J38" s="76"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="105" t="s">
+      <c r="B39" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="98"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
       <c r="J39" s="76"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="105" t="s">
+      <c r="B40" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
       <c r="J40" s="76"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="98"/>
-      <c r="I41" s="98"/>
       <c r="J41" s="76"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="98"/>
-      <c r="I42" s="98"/>
       <c r="J42" s="76"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
       <c r="J43" s="76"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
       <c r="J44" s="76"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="80"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="98"/>
-      <c r="I45" s="98"/>
       <c r="J45" s="76"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="80"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="98"/>
       <c r="J46" s="76"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
       <c r="J47" s="76"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
       <c r="J48" s="76"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="105" t="s">
+      <c r="B49" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="98"/>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
       <c r="J49" s="76"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="98"/>
-      <c r="I50" s="98"/>
       <c r="J50" s="76"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="103" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="98"/>
-      <c r="I51" s="98"/>
       <c r="J51" s="76"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="105" t="s">
+      <c r="B52" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
       <c r="J52" s="76"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="105" t="s">
+      <c r="B53" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98" t="s">
+      <c r="F53" t="s">
         <v>330</v>
       </c>
-      <c r="G53" s="105" t="s">
+      <c r="G53" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
       <c r="J53" s="76" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="105" t="s">
+      <c r="B54" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="98"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="98"/>
       <c r="J54" s="76"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="105"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="98"/>
-      <c r="I55" s="98"/>
+      <c r="B55" s="104"/>
       <c r="J55" s="76"/>
     </row>
     <row r="56" spans="2:10" ht="14.5" thickBot="1">
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="105" t="s">
         <v>182</v>
       </c>
       <c r="C56" s="83"/>
@@ -12419,7 +15600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCA8955-6250-4912-BD60-ECEF3CA4C88A}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -12545,6 +15726,1590 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4844FAF1-91DB-4694-9385-3D55A6FFCDFF}">
+  <dimension ref="B1:I23"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="14.5" thickBot="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="68"/>
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I3" s="76"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="68"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="76"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="68"/>
+      <c r="I5" s="76"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="68"/>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="68"/>
+      <c r="I7" s="76"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="68"/>
+      <c r="I8" s="76"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="76"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="68"/>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="68"/>
+      <c r="D11" s="111" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="68"/>
+      <c r="I12" s="76"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="68"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="68"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="68"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="68"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="68"/>
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="68"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="68"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="68"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="68"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.5" thickBot="1">
+      <c r="B23" s="69"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A77C92F-4F27-4733-9A75-7C5267DB441E}">
+  <dimension ref="A1:S82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="2.4140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="70" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="70" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="90" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="94">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="94">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="14.5" thickBot="1">
+      <c r="B18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+      <c r="K19" s="116" t="s">
+        <v>359</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="75"/>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" s="68"/>
+      <c r="I20" s="76"/>
+      <c r="K20" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="S20" s="76"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="68"/>
+      <c r="I21" s="76"/>
+      <c r="K21" s="68"/>
+      <c r="S21" s="76"/>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" s="68"/>
+      <c r="C22" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="76"/>
+      <c r="K22" s="68"/>
+      <c r="L22" t="s">
+        <v>344</v>
+      </c>
+      <c r="M22" t="s">
+        <v>345</v>
+      </c>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" s="68"/>
+      <c r="D23" t="s">
+        <v>348</v>
+      </c>
+      <c r="I23" s="76"/>
+      <c r="K23" s="68"/>
+      <c r="M23" t="s">
+        <v>348</v>
+      </c>
+      <c r="S23" s="76"/>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" s="68"/>
+      <c r="I24" s="76"/>
+      <c r="K24" s="68"/>
+      <c r="N24" t="s">
+        <v>365</v>
+      </c>
+      <c r="S24" s="76"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="68"/>
+      <c r="I25" s="76"/>
+      <c r="K25" s="68"/>
+      <c r="N25" t="s">
+        <v>364</v>
+      </c>
+      <c r="S25" s="76"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="68"/>
+      <c r="I26" s="76"/>
+      <c r="K26" s="68"/>
+      <c r="S26" s="76"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="68"/>
+      <c r="I27" s="76"/>
+      <c r="K27" s="68"/>
+      <c r="S27" s="76"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="68"/>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+      <c r="I28" s="76"/>
+      <c r="K28" s="68"/>
+      <c r="L28" t="s">
+        <v>352</v>
+      </c>
+      <c r="S28" s="76"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="68"/>
+      <c r="I29" s="76"/>
+      <c r="K29" s="68"/>
+      <c r="M29" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="O29" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="S29" s="76"/>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" s="68"/>
+      <c r="I30" s="76"/>
+      <c r="K30" s="68"/>
+      <c r="N30" t="s">
+        <v>366</v>
+      </c>
+      <c r="S30" s="76"/>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="68"/>
+      <c r="I31" s="76"/>
+      <c r="K31" s="68"/>
+      <c r="N31" t="s">
+        <v>364</v>
+      </c>
+      <c r="S31" s="76"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" s="68"/>
+      <c r="I32" s="76"/>
+      <c r="K32" s="68"/>
+      <c r="S32" s="76"/>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" s="68"/>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" t="s">
+        <v>350</v>
+      </c>
+      <c r="I33" s="76"/>
+      <c r="K33" s="68"/>
+      <c r="L33" t="s">
+        <v>349</v>
+      </c>
+      <c r="M33" t="s">
+        <v>350</v>
+      </c>
+      <c r="S33" s="76"/>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" s="68"/>
+      <c r="D34" t="s">
+        <v>351</v>
+      </c>
+      <c r="I34" s="76"/>
+      <c r="K34" s="68"/>
+      <c r="M34" t="s">
+        <v>367</v>
+      </c>
+      <c r="S34" s="76"/>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" s="68"/>
+      <c r="I35" s="76"/>
+      <c r="K35" s="68"/>
+      <c r="S35" s="76"/>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" s="68"/>
+      <c r="I36" s="76"/>
+      <c r="K36" s="68"/>
+      <c r="L36" t="s">
+        <v>361</v>
+      </c>
+      <c r="S36" s="76"/>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" s="68"/>
+      <c r="I37" s="76"/>
+      <c r="K37" s="68"/>
+      <c r="M37" t="s">
+        <v>362</v>
+      </c>
+      <c r="O37" s="115" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>368</v>
+      </c>
+      <c r="S37" s="76"/>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" s="68"/>
+      <c r="I38" s="76"/>
+      <c r="K38" s="68"/>
+      <c r="S38" s="76"/>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" s="68"/>
+      <c r="I39" s="76"/>
+      <c r="K39" s="112" t="s">
+        <v>356</v>
+      </c>
+      <c r="S39" s="76"/>
+    </row>
+    <row r="40" spans="2:19" ht="14.5" thickBot="1">
+      <c r="B40" s="69"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="84"/>
+      <c r="K40" s="117" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
+      <c r="P40" s="83"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="83"/>
+      <c r="S40" s="84"/>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="K45" s="118" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="L47" s="118" t="s">
+        <v>369</v>
+      </c>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+    </row>
+    <row r="49" spans="2:19">
+      <c r="L49" s="118"/>
+      <c r="M49" s="118" t="s">
+        <v>370</v>
+      </c>
+      <c r="N49" s="118"/>
+    </row>
+    <row r="50" spans="2:19">
+      <c r="L50" s="118"/>
+      <c r="M50" s="118" t="s">
+        <v>371</v>
+      </c>
+      <c r="N50" s="118"/>
+    </row>
+    <row r="51" spans="2:19">
+      <c r="L51" s="118"/>
+      <c r="M51" s="118" t="s">
+        <v>370</v>
+      </c>
+      <c r="N51" s="118"/>
+    </row>
+    <row r="52" spans="2:19">
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+    </row>
+    <row r="54" spans="2:19" ht="14.5" thickBot="1"/>
+    <row r="55" spans="2:19">
+      <c r="B55" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="75"/>
+      <c r="L55" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
+      <c r="B56" s="68"/>
+      <c r="E56" s="76"/>
+      <c r="P56" s="118" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+    </row>
+    <row r="57" spans="2:19">
+      <c r="B57" s="68"/>
+      <c r="C57" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" s="76"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="R57" s="118"/>
+      <c r="S57" s="118"/>
+    </row>
+    <row r="58" spans="2:19">
+      <c r="B58" s="68"/>
+      <c r="C58" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="76"/>
+      <c r="N58" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
+      <c r="B59" s="68"/>
+      <c r="E59" s="76"/>
+      <c r="P59" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="14.5" thickBot="1">
+      <c r="B60" s="69"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="84"/>
+    </row>
+    <row r="65" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B65" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="67"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="75"/>
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="68"/>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="76"/>
+    </row>
+    <row r="68" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B68" s="68"/>
+      <c r="D68" t="s">
+        <v>383</v>
+      </c>
+      <c r="K68" s="76"/>
+    </row>
+    <row r="69" spans="2:11">
+      <c r="B69" s="68"/>
+      <c r="D69" s="119" t="s">
+        <v>384</v>
+      </c>
+      <c r="E69" s="120"/>
+      <c r="F69" s="120"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="121"/>
+      <c r="K69" s="76"/>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="B70" s="68"/>
+      <c r="D70" s="56" t="s">
+        <v>385</v>
+      </c>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="57"/>
+      <c r="K70" s="76"/>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="B71" s="68"/>
+      <c r="D71" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="57"/>
+      <c r="K71" s="76"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="68"/>
+      <c r="D72" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" s="123"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="124"/>
+      <c r="K72" s="76"/>
+    </row>
+    <row r="73" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B73" s="68"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="84"/>
+      <c r="K73" s="76"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74" s="68"/>
+      <c r="K74" s="76"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="68"/>
+      <c r="D75" t="s">
+        <v>386</v>
+      </c>
+      <c r="K75" s="76"/>
+    </row>
+    <row r="76" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B76" s="68"/>
+      <c r="D76" t="s">
+        <v>383</v>
+      </c>
+      <c r="K76" s="76"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B77" s="68"/>
+      <c r="D77" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="75"/>
+      <c r="K77" s="76"/>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="68"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="75"/>
+      <c r="K78" s="76"/>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="I79" s="76"/>
+      <c r="K79" s="76"/>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="I80" s="76"/>
+      <c r="K80" s="76"/>
+    </row>
+    <row r="81" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B81" s="68"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="84"/>
+      <c r="K81" s="76"/>
+    </row>
+    <row r="82" spans="2:11" ht="14.5" thickBot="1">
+      <c r="B82" s="69"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="G82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="I82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="K82" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E89E03-2145-48D7-9707-770A69318786}">
+  <dimension ref="A2:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="14.5" thickBot="1"/>
+    <row r="47" spans="2:7">
+      <c r="B47" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="68"/>
+      <c r="C48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" s="76"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" s="76"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.5" thickBot="1">
+      <c r="B50" s="69"/>
+      <c r="C50" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="84"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.5" thickBot="1"/>
+    <row r="52" spans="1:7">
+      <c r="B52" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="68"/>
+      <c r="C53" t="s">
+        <v>397</v>
+      </c>
+      <c r="G53" s="76"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="G54" s="76"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.5" thickBot="1">
+      <c r="B55" s="69"/>
+      <c r="C55" s="83" t="s">
+        <v>396</v>
+      </c>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="84"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" t="s">
+        <v>401</v>
+      </c>
+      <c r="E61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6603E-AB5D-4201-8F58-B82F5B7CD06A}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="3" max="3" width="4.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="37"/>
+      <c r="B2" s="136" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="37"/>
+      <c r="B3" s="136" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="37"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136" t="s">
+        <v>418</v>
+      </c>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A5" s="37"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136" t="s">
+        <v>422</v>
+      </c>
+      <c r="K5" s="136"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="37"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="43" t="s">
+        <v>419</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>420</v>
+      </c>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="37"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="136" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="45">
+        <v>202401</v>
+      </c>
+      <c r="K7" s="138">
+        <v>840</v>
+      </c>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="136" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="46">
+        <v>202402</v>
+      </c>
+      <c r="K8" s="139">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="37"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="136" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="37"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="136" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="37"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="37"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="37"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="G15" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="37"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="45">
+        <v>1</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="42">
+        <v>100</v>
+      </c>
+      <c r="G16" s="138">
+        <v>1</v>
+      </c>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="37"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="45">
+        <v>2</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="42">
+        <v>200</v>
+      </c>
+      <c r="G17" s="138">
+        <v>2</v>
+      </c>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="46">
+        <v>3</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="F18" s="47">
+        <v>300</v>
+      </c>
+      <c r="G18" s="139">
+        <v>1</v>
+      </c>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="37"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="37"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="37"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="37"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="42">
+        <v>10</v>
+      </c>
+      <c r="G23" s="138">
+        <v>2</v>
+      </c>
+      <c r="H23" s="136"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="37"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="45">
+        <v>2</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" s="42">
+        <v>10</v>
+      </c>
+      <c r="G24" s="138">
+        <v>1</v>
+      </c>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="38"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="46">
+        <v>3</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="47">
+        <v>10</v>
+      </c>
+      <c r="G25" s="139">
+        <v>1</v>
+      </c>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="37"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="38"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="37"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="37"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="G29" s="137" t="s">
+        <v>408</v>
+      </c>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="37"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="45">
+        <v>1</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="F30" s="42">
+        <v>200</v>
+      </c>
+      <c r="G30" s="138">
+        <v>2</v>
+      </c>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="38"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="37"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="45">
+        <v>2</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="F31" s="42">
+        <v>800</v>
+      </c>
+      <c r="G31" s="138">
+        <v>1</v>
+      </c>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="46">
+        <v>3</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="F32" s="47">
+        <v>300</v>
+      </c>
+      <c r="G32" s="139">
+        <v>1</v>
+      </c>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.5" thickBot="1">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.5" thickBot="1"/>
+    <row r="35" spans="1:12">
+      <c r="B35" s="67"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="H35" s="125" t="s">
+        <v>428</v>
+      </c>
+      <c r="I35" s="126" t="s">
+        <v>432</v>
+      </c>
+      <c r="J35" s="126"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="B36" s="68"/>
+      <c r="E36" s="76"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="111" t="s">
+        <v>433</v>
+      </c>
+      <c r="J36" s="111"/>
+      <c r="L36" s="76"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="B37" s="68"/>
+      <c r="E37" s="76"/>
+      <c r="H37" s="128" t="s">
+        <v>429</v>
+      </c>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="L37" s="76"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="B38" s="68"/>
+      <c r="E38" s="76"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="L38" s="76"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="B39" s="68"/>
+      <c r="E39" s="76"/>
+      <c r="H39" s="130" t="s">
+        <v>430</v>
+      </c>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="B40" s="68"/>
+      <c r="E40" s="76"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
+      <c r="L40" s="76"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="68"/>
+      <c r="E41" s="76"/>
+      <c r="H41" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="L41" s="76"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="68"/>
+      <c r="E42" s="76"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="L42" s="76"/>
+    </row>
+    <row r="43" spans="1:12" ht="14.5" thickBot="1">
+      <c r="B43" s="69"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="84"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13047,7 +17812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A657CE-5E43-42C0-8018-60AD525009F3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
@@ -13397,7 +18164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4201B21D-9FA9-4803-9D00-DC71C101C58B}">
   <dimension ref="A2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -13445,13 +18212,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="110" t="s">
         <v>55</v>
       </c>
     </row>
@@ -14098,6 +18865,1496 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C4F57-1428-41E8-B23E-3A17D76612F0}">
+  <dimension ref="A2:B341"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="151.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="111" customFormat="1" ht="18">
+      <c r="A2" s="140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="141" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="142" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5">
+      <c r="B6" s="142" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="142" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.5">
+      <c r="B8" s="143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5">
+      <c r="A9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="142" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5">
+      <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="142" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="142" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.5">
+      <c r="A12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.5">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" s="143" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5">
+      <c r="B14" s="144" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="142" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.5">
+      <c r="B16" s="143" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="142" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="141" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="145" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="145" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="111" customFormat="1" ht="18">
+      <c r="A25" s="140" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="70" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>447</v>
+      </c>
+      <c r="B27" s="146" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28" s="146" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="147" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="148" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="148" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="148" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="148" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="148" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="148" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="149" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="150" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="111" customFormat="1" ht="18">
+      <c r="A43" s="140" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="151" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="152"/>
+    </row>
+    <row r="46" spans="1:2" s="111" customFormat="1" ht="18">
+      <c r="A46" s="140" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" s="145" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>447</v>
+      </c>
+      <c r="B64" s="145" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="145" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" s="145" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="B80" s="153"/>
+    </row>
+    <row r="81" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="82" spans="2:2">
+      <c r="B82" s="64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="65"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="154" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="155" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="155"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="65" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="65"/>
+    </row>
+    <row r="94" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B94" s="66" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="97" spans="2:2">
+      <c r="B97" s="64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="65"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="65" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="65" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="65"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="65" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="65" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="65"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="65" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="65"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="65" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="65"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="65" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="65" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="65"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="65" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="65"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="65"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="65" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="65" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="65"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="65" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="65"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="65" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="65"/>
+    </row>
+    <row r="139" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B139" s="66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="141" spans="2:2">
+      <c r="B141" s="64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="65"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="65" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="65" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="65"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="65" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="65"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="65" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="65" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="65" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="65" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="65" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="65" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="65"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="65" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="65" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="65" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="65" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="65" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="65" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="65" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="65" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="65" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="65"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="65" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="65" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="65" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="65" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="65" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="65" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="65" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="65"/>
+    </row>
+    <row r="181" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B181" s="66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="156" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="156" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="156" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="B194" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="B195" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="B196" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" s="111" customFormat="1" ht="18.5" thickBot="1">
+      <c r="A198" s="140" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" s="64" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="B200" s="65"/>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="B201" s="65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="B202" s="65" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="B203" s="65" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="B204" s="65"/>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="B205" s="65" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206" s="65" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="B207" s="65"/>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="B208" s="65" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="65" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="65"/>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="65" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="65" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="65" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="65" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="65" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="65" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="65" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="65" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="65" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="65"/>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="65" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="65"/>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="65" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="65" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="65"/>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="65" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="65"/>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="65" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="65"/>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="65" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="65"/>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="65" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="65"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="65" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="65"/>
+    </row>
+    <row r="244" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B244" s="66" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="246" spans="2:2">
+      <c r="B246" s="64" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="65"/>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="65" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="65"/>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="65" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="65"/>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="65" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="65"/>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="65" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="65"/>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="65" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="65"/>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="65" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="65" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="65" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="65" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="65" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="65" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="65" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="65" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="65" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="65" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="65" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="65" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="65" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="65" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="65" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="65" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="65" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="65" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="65" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="65" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="65"/>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="65" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="65"/>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="65" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="65"/>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="65" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="65"/>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="65" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="65"/>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="65" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="65"/>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="65" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="65"/>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="65" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="65"/>
+    </row>
+    <row r="301" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B301" s="66" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="303" spans="2:2">
+      <c r="B303" s="64" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="65"/>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="65" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="65"/>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="65" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="65"/>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="65" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="65"/>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="65" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="65"/>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="65" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="65"/>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="65" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="65"/>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="65" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="65"/>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="65" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="65"/>
+    </row>
+    <row r="321" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B321" s="66" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" ht="14.5" thickBot="1"/>
+    <row r="323" spans="2:2">
+      <c r="B323" s="64" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="65"/>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="65" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="65"/>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="65" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="65"/>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="65" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="65"/>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="65" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="65"/>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="65" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="65"/>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="65" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="65"/>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="65" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="65"/>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="65" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="65"/>
+    </row>
+    <row r="341" spans="2:2" ht="14.5" thickBot="1">
+      <c r="B341" s="66" t="s">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC02299-AD93-49C6-94E5-3741C534FA84}">
   <dimension ref="A4:F73"/>
   <sheetViews>
@@ -14278,10 +20535,10 @@
       <c r="B43" s="95"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="C44" s="108"/>
+      <c r="C44" s="107"/>
       <c r="F44" t="s">
         <v>326</v>
       </c>
@@ -14415,909 +20672,6 @@
     <row r="73" spans="2:4">
       <c r="C73" t="s">
         <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969951C4-BABE-4887-B0AE-66E391B557B1}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="B1:B188"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="95"/>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="70" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="70" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="95"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="95"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="70" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="70" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="70" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="95"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="95"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="70" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="95"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="70" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="95"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="95"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="70" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="70" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="95"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="70" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="70" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="70" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="96" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="96" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="70" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="89" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="95"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="95"/>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="89" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="95"/>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="96" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="96" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="95"/>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="96" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="89" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="89" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="95"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="96" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="89" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="95"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="95"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="89" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="89" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="95"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="96" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="89" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="89" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="95"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="95"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="96" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="89" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="89" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="70" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="95"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="96" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="89" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="70" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="89" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="70" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="89" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="95"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="96" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="70" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="70" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="70" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="70" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="95"/>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="96" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="70" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="70" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="95"/>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="96" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="70" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="70" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="95"/>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="95"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="96" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="89" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="70" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="70" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="90" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="70" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="70" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="70" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="90" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="89" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="95"/>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="96" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="95"/>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="96" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="90" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
